--- a/Code/Results/Cases/Case_2_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_41/res_line/pl_mw.xlsx
@@ -412,31 +412,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.820759103170275</v>
+        <v>1.820759103170474</v>
       </c>
       <c r="C2">
-        <v>0.3810368370068886</v>
+        <v>0.3810368370070876</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1111390428722103</v>
+        <v>0.1111390428722032</v>
       </c>
       <c r="F2">
-        <v>2.001663687022202</v>
+        <v>2.001663687022187</v>
       </c>
       <c r="G2">
-        <v>1.699709284976834</v>
+        <v>1.699709284976848</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1647018164627916</v>
+        <v>0.1647018164628058</v>
       </c>
       <c r="J2">
-        <v>0.4868953523449377</v>
+        <v>0.4868953523449449</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.569355055942992</v>
+        <v>1.569355055942935</v>
       </c>
       <c r="C3">
-        <v>0.3302431720971413</v>
+        <v>0.3302431720969707</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.09592554199268832</v>
+        <v>0.09592554199272385</v>
       </c>
       <c r="F3">
         <v>1.745475028174596</v>
@@ -471,10 +471,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1594166294864152</v>
+        <v>0.1594166294864579</v>
       </c>
       <c r="J3">
-        <v>0.4196310025513199</v>
+        <v>0.419631002551327</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -491,34 +491,34 @@
         <v>1.417180879647049</v>
       </c>
       <c r="C4">
-        <v>0.2994353101894944</v>
+        <v>0.299435310189466</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.08669269049964612</v>
+        <v>0.08669269049964257</v>
       </c>
       <c r="F4">
-        <v>1.591543640268426</v>
+        <v>1.591543640268441</v>
       </c>
       <c r="G4">
-        <v>1.429084463098377</v>
+        <v>1.429084463098349</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1564659564566746</v>
+        <v>0.1564659564566995</v>
       </c>
       <c r="J4">
-        <v>0.3788933905293135</v>
+        <v>0.3788933905293277</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.5068506439971969</v>
+        <v>0.506850643997204</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.355635063104529</v>
+        <v>1.355635063104216</v>
       </c>
       <c r="C5">
-        <v>0.2869581848745213</v>
+        <v>0.2869581848744929</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.08295338351882009</v>
+        <v>0.08295338351889114</v>
       </c>
       <c r="F5">
         <v>1.529560601272962</v>
       </c>
       <c r="G5">
-        <v>1.388773925995523</v>
+        <v>1.388773925995508</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1553306302995132</v>
+        <v>0.1553306302995452</v>
       </c>
       <c r="J5">
-        <v>0.3624112539254654</v>
+        <v>0.3624112539254583</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -567,7 +567,7 @@
         <v>1.345441276625024</v>
       </c>
       <c r="C6">
-        <v>0.2848905389056</v>
+        <v>0.2848905389057705</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -576,7 +576,7 @@
         <v>0.08233375964324452</v>
       </c>
       <c r="F6">
-        <v>1.519310543560081</v>
+        <v>1.519310543560096</v>
       </c>
       <c r="G6">
         <v>1.382124472409942</v>
@@ -585,16 +585,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1551459713894801</v>
+        <v>0.1551459713894658</v>
       </c>
       <c r="J6">
-        <v>0.3596809523954647</v>
+        <v>0.3596809523954505</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4812008181668261</v>
+        <v>0.4812008181668475</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.416349068627966</v>
+        <v>1.416349068628108</v>
       </c>
       <c r="C7">
-        <v>0.2992667489972405</v>
+        <v>0.2992667489970131</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.08664217230755966</v>
+        <v>0.08664217230756321</v>
       </c>
       <c r="F7">
-        <v>1.590704826912372</v>
+        <v>1.590704826912386</v>
       </c>
       <c r="G7">
-        <v>1.428537810205825</v>
+        <v>1.428537810205839</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1564503821063745</v>
+        <v>0.1564503821063852</v>
       </c>
       <c r="J7">
-        <v>0.3786706544546803</v>
+        <v>0.3786706544546945</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.5065533074938173</v>
+        <v>0.5065533074938031</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,34 +643,34 @@
         <v>1.733567697009619</v>
       </c>
       <c r="C8">
-        <v>0.3634329226564148</v>
+        <v>0.3634329226564432</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1058683916008576</v>
+        <v>0.1058683916008327</v>
       </c>
       <c r="F8">
         <v>1.91256645760798</v>
       </c>
       <c r="G8">
-        <v>1.640384873275309</v>
+        <v>1.640384873275295</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1628139867858529</v>
+        <v>0.1628139867858565</v>
       </c>
       <c r="J8">
-        <v>0.4635713817448917</v>
+        <v>0.4635713817448774</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.6198343119341274</v>
+        <v>0.6198343119341132</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,7 +678,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.377234600306565</v>
+        <v>2.377234600306679</v>
       </c>
       <c r="C9">
         <v>0.4931937232054224</v>
@@ -687,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1446333501192179</v>
+        <v>0.1446333501192498</v>
       </c>
       <c r="F9">
         <v>2.575554459612704</v>
@@ -699,16 +699,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1779796689662199</v>
+        <v>0.1779796689662412</v>
       </c>
       <c r="J9">
-        <v>0.6356782709040445</v>
+        <v>0.6356782709040658</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.8490865343357541</v>
+        <v>0.8490865343357612</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,34 +719,34 @@
         <v>2.869976363833473</v>
       </c>
       <c r="C10">
-        <v>0.5923822502275868</v>
+        <v>0.5923822502272742</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1740767553073965</v>
+        <v>0.1740767553073823</v>
       </c>
       <c r="F10">
-        <v>3.089960309297027</v>
+        <v>3.089960309297112</v>
       </c>
       <c r="G10">
-        <v>2.443480997953827</v>
+        <v>2.443480997953884</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1913144704025349</v>
+        <v>0.1913144704025278</v>
       </c>
       <c r="J10">
-        <v>0.7673637340088391</v>
+        <v>0.7673637340088533</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.024097012819063</v>
+        <v>1.024097012819077</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.100178860859501</v>
+        <v>3.100178860859671</v>
       </c>
       <c r="C11">
-        <v>0.6387245591949124</v>
+        <v>0.6387245591951398</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.187760330693358</v>
+        <v>0.1877603306934006</v>
       </c>
       <c r="F11">
-        <v>3.331932969105111</v>
+        <v>3.331932969105139</v>
       </c>
       <c r="G11">
         <v>2.612993675215833</v>
@@ -775,16 +775,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1980031653837884</v>
+        <v>0.1980031653838203</v>
       </c>
       <c r="J11">
-        <v>0.8288809362716236</v>
+        <v>0.8288809362716165</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.10572305299344</v>
+        <v>1.105723052993469</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.188388516019586</v>
+        <v>3.188388516019529</v>
       </c>
       <c r="C12">
-        <v>0.6564860632532827</v>
+        <v>0.6564860632535101</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1929911418554653</v>
+        <v>0.1929911418554369</v>
       </c>
       <c r="F12">
         <v>3.424901246665485</v>
@@ -813,16 +813,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.2006399527155232</v>
+        <v>0.2006399527155018</v>
       </c>
       <c r="J12">
-        <v>0.8524536414625601</v>
+        <v>0.852453641462553</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.136978074909734</v>
+        <v>1.136978074909713</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.169341963402928</v>
+        <v>3.169341963403099</v>
       </c>
       <c r="C13">
-        <v>0.6526506972270454</v>
+        <v>0.6526506972269885</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1918622786519038</v>
+        <v>0.1918622786519535</v>
       </c>
       <c r="F13">
-        <v>3.404815994368278</v>
+        <v>3.404815994368334</v>
       </c>
       <c r="G13">
-        <v>2.664315246646979</v>
+        <v>2.664315246647021</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.2000671986593012</v>
+        <v>0.2000671986593368</v>
       </c>
       <c r="J13">
-        <v>0.8473637020785674</v>
+        <v>0.8473637020785461</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.130230436200605</v>
+        <v>1.130230436200584</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,34 +871,34 @@
         <v>3.107414101848349</v>
       </c>
       <c r="C14">
-        <v>0.6401813145116932</v>
+        <v>0.6401813145116648</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1881896417464475</v>
+        <v>0.1881896417464404</v>
       </c>
       <c r="F14">
         <v>3.339553505954285</v>
       </c>
       <c r="G14">
-        <v>2.618354149168866</v>
+        <v>2.618354149168852</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1982179224576583</v>
+        <v>0.1982179224576335</v>
       </c>
       <c r="J14">
-        <v>0.8308144319867026</v>
+        <v>0.8308144319866955</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.1082871627274</v>
+        <v>1.108287162727386</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.069621885653135</v>
+        <v>3.069621885653021</v>
       </c>
       <c r="C15">
-        <v>0.6325723479689884</v>
+        <v>0.6325723479692158</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1859466824913127</v>
+        <v>0.1859466824912985</v>
       </c>
       <c r="F15">
-        <v>3.299758806782165</v>
+        <v>3.299758806782222</v>
       </c>
       <c r="G15">
-        <v>2.590376158162798</v>
+        <v>2.590376158162812</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1970991854709965</v>
+        <v>0.1970991854710071</v>
       </c>
       <c r="J15">
-        <v>0.8207151230130521</v>
+        <v>0.8207151230130805</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.094892981991308</v>
+        <v>1.094892981991322</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.85506760425136</v>
+        <v>2.855067604251246</v>
       </c>
       <c r="C16">
-        <v>0.58938129191597</v>
+        <v>0.5893812919161974</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.173188949722352</v>
+        <v>0.1731889497223591</v>
       </c>
       <c r="F16">
         <v>3.074323072042091</v>
       </c>
       <c r="G16">
-        <v>2.432573689003902</v>
+        <v>2.432573689003888</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0.1908910593239597</v>
       </c>
       <c r="J16">
-        <v>0.7633796461253226</v>
+        <v>0.7633796461253439</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.018807646240148</v>
+        <v>1.018807646240141</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,31 +982,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.725107146693517</v>
+        <v>2.72510714669346</v>
       </c>
       <c r="C17">
-        <v>0.5632224647797841</v>
+        <v>0.5632224647797557</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1654417301651705</v>
+        <v>0.1654417301651563</v>
       </c>
       <c r="F17">
         <v>2.938195737607543</v>
       </c>
       <c r="G17">
-        <v>2.337871036926742</v>
+        <v>2.337871036926771</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.18725163104342</v>
+        <v>0.1872516310434307</v>
       </c>
       <c r="J17">
-        <v>0.7286497511414325</v>
+        <v>0.7286497511414254</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1023,16 +1023,16 @@
         <v>2.650915724470508</v>
       </c>
       <c r="C18">
-        <v>0.548289009644094</v>
+        <v>0.5482890096441508</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1610124974449718</v>
+        <v>0.1610124974449434</v>
       </c>
       <c r="F18">
-        <v>2.860635880520874</v>
+        <v>2.860635880520846</v>
       </c>
       <c r="G18">
         <v>2.284116575347852</v>
@@ -1041,16 +1041,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1852159556279034</v>
+        <v>0.1852159556278927</v>
       </c>
       <c r="J18">
-        <v>0.7088227693369973</v>
+        <v>0.7088227693370044</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.9463415296962125</v>
+        <v>0.9463415296961912</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,31 +1058,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.625886972126409</v>
+        <v>2.625886972126636</v>
       </c>
       <c r="C19">
-        <v>0.5432510590169102</v>
+        <v>0.543251059017166</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1595172178620743</v>
+        <v>0.1595172178620956</v>
       </c>
       <c r="F19">
         <v>2.834496538955136</v>
       </c>
       <c r="G19">
-        <v>2.266034040831912</v>
+        <v>2.266034040831926</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.1845362039574248</v>
+        <v>0.1845362039574141</v>
       </c>
       <c r="J19">
-        <v>0.7021339518235692</v>
+        <v>0.7021339518235905</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.738882731771355</v>
+        <v>2.738882731771071</v>
       </c>
       <c r="C20">
-        <v>0.5659952305530567</v>
+        <v>0.5659952305528293</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1108,25 +1108,25 @@
         <v>0.1662636135793676</v>
       </c>
       <c r="F20">
-        <v>2.952609130169947</v>
+        <v>2.952609130169975</v>
       </c>
       <c r="G20">
-        <v>2.347876947962803</v>
+        <v>2.347876947962817</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.1876329926692328</v>
+        <v>0.1876329926692364</v>
       </c>
       <c r="J20">
-        <v>0.732331104152756</v>
+        <v>0.7323311041527845</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.9775748494722407</v>
+        <v>0.9775748494722549</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1143,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1892669864465191</v>
+        <v>0.1892669864464764</v>
       </c>
       <c r="F21">
         <v>3.358684693039066</v>
@@ -1155,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.1987581536918732</v>
+        <v>0.198758153691891</v>
       </c>
       <c r="J21">
-        <v>0.835667428082175</v>
+        <v>0.8356674280821679</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.114722590187093</v>
+        <v>1.114722590187078</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.38443866641876</v>
+        <v>3.384438666418873</v>
       </c>
       <c r="C22">
-        <v>0.6959733649730424</v>
+        <v>0.695973364973014</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2045915882429625</v>
+        <v>0.2045915882429341</v>
       </c>
       <c r="F22">
         <v>3.631988640000856</v>
@@ -1193,16 +1193,16 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.2066431713699153</v>
+        <v>0.206643171369894</v>
       </c>
       <c r="J22">
-        <v>0.9048470350002447</v>
+        <v>0.9048470350002589</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.206399036875567</v>
+        <v>1.206399036875581</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,7 +1210,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.24565473118497</v>
+        <v>3.245654731185027</v>
       </c>
       <c r="C23">
         <v>0.6680185123810816</v>
@@ -1219,28 +1219,28 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1963832552308773</v>
+        <v>0.1963832552309199</v>
       </c>
       <c r="F23">
         <v>3.485326925233096</v>
       </c>
       <c r="G23">
-        <v>2.721146791746079</v>
+        <v>2.721146791746094</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.2023732543097516</v>
+        <v>0.2023732543097942</v>
       </c>
       <c r="J23">
-        <v>0.8677574204065905</v>
+        <v>0.8677574204066332</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.157262312161599</v>
+        <v>1.157262312161585</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.73265316811478</v>
+        <v>2.732653168114609</v>
       </c>
       <c r="C24">
-        <v>0.5647413369487992</v>
+        <v>0.5647413369486003</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1658919635607461</v>
+        <v>0.1658919635607319</v>
       </c>
       <c r="F24">
         <v>2.946090664439652</v>
       </c>
       <c r="G24">
-        <v>2.343351135639466</v>
+        <v>2.343351135639452</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.1874604035906309</v>
+        <v>0.187460403590638</v>
       </c>
       <c r="J24">
-        <v>0.7306663326877043</v>
+        <v>0.7306663326877185</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.975363417545509</v>
+        <v>0.9753634175454948</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.200151973602374</v>
+        <v>2.200151973602317</v>
       </c>
       <c r="C25">
-        <v>0.4575296814508647</v>
+        <v>0.4575296814509215</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1340020958123596</v>
+        <v>0.1340020958123702</v>
       </c>
       <c r="F25">
-        <v>2.392027540425474</v>
+        <v>2.392027540425445</v>
       </c>
       <c r="G25">
-        <v>1.962666858820739</v>
+        <v>1.962666858820711</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.1735363226349769</v>
+        <v>0.1735363226349484</v>
       </c>
       <c r="J25">
-        <v>0.5883432794490489</v>
+        <v>0.5883432794490417</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.7860905382475849</v>
+        <v>0.7860905382475778</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_41/res_line/pl_mw.xlsx
@@ -412,31 +412,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.820759103170474</v>
+        <v>1.820759103170275</v>
       </c>
       <c r="C2">
-        <v>0.3810368370070876</v>
+        <v>0.3810368370068886</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1111390428722032</v>
+        <v>0.1111390428722103</v>
       </c>
       <c r="F2">
-        <v>2.001663687022187</v>
+        <v>2.001663687022202</v>
       </c>
       <c r="G2">
-        <v>1.699709284976848</v>
+        <v>1.699709284976834</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1647018164628058</v>
+        <v>0.1647018164627916</v>
       </c>
       <c r="J2">
-        <v>0.4868953523449449</v>
+        <v>0.4868953523449377</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.569355055942935</v>
+        <v>1.569355055942992</v>
       </c>
       <c r="C3">
-        <v>0.3302431720969707</v>
+        <v>0.3302431720971413</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.09592554199272385</v>
+        <v>0.09592554199268832</v>
       </c>
       <c r="F3">
         <v>1.745475028174596</v>
@@ -471,10 +471,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1594166294864579</v>
+        <v>0.1594166294864152</v>
       </c>
       <c r="J3">
-        <v>0.419631002551327</v>
+        <v>0.4196310025513199</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -491,34 +491,34 @@
         <v>1.417180879647049</v>
       </c>
       <c r="C4">
-        <v>0.299435310189466</v>
+        <v>0.2994353101894944</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.08669269049964257</v>
+        <v>0.08669269049964612</v>
       </c>
       <c r="F4">
-        <v>1.591543640268441</v>
+        <v>1.591543640268426</v>
       </c>
       <c r="G4">
-        <v>1.429084463098349</v>
+        <v>1.429084463098377</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1564659564566995</v>
+        <v>0.1564659564566746</v>
       </c>
       <c r="J4">
-        <v>0.3788933905293277</v>
+        <v>0.3788933905293135</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.506850643997204</v>
+        <v>0.5068506439971969</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.355635063104216</v>
+        <v>1.355635063104529</v>
       </c>
       <c r="C5">
-        <v>0.2869581848744929</v>
+        <v>0.2869581848745213</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.08295338351889114</v>
+        <v>0.08295338351882009</v>
       </c>
       <c r="F5">
         <v>1.529560601272962</v>
       </c>
       <c r="G5">
-        <v>1.388773925995508</v>
+        <v>1.388773925995523</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1553306302995452</v>
+        <v>0.1553306302995132</v>
       </c>
       <c r="J5">
-        <v>0.3624112539254583</v>
+        <v>0.3624112539254654</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -567,7 +567,7 @@
         <v>1.345441276625024</v>
       </c>
       <c r="C6">
-        <v>0.2848905389057705</v>
+        <v>0.2848905389056</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -576,7 +576,7 @@
         <v>0.08233375964324452</v>
       </c>
       <c r="F6">
-        <v>1.519310543560096</v>
+        <v>1.519310543560081</v>
       </c>
       <c r="G6">
         <v>1.382124472409942</v>
@@ -585,16 +585,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1551459713894658</v>
+        <v>0.1551459713894801</v>
       </c>
       <c r="J6">
-        <v>0.3596809523954505</v>
+        <v>0.3596809523954647</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4812008181668475</v>
+        <v>0.4812008181668261</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.416349068628108</v>
+        <v>1.416349068627966</v>
       </c>
       <c r="C7">
-        <v>0.2992667489970131</v>
+        <v>0.2992667489972405</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.08664217230756321</v>
+        <v>0.08664217230755966</v>
       </c>
       <c r="F7">
-        <v>1.590704826912386</v>
+        <v>1.590704826912372</v>
       </c>
       <c r="G7">
-        <v>1.428537810205839</v>
+        <v>1.428537810205825</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1564503821063852</v>
+        <v>0.1564503821063745</v>
       </c>
       <c r="J7">
-        <v>0.3786706544546945</v>
+        <v>0.3786706544546803</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.5065533074938031</v>
+        <v>0.5065533074938173</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,34 +643,34 @@
         <v>1.733567697009619</v>
       </c>
       <c r="C8">
-        <v>0.3634329226564432</v>
+        <v>0.3634329226564148</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1058683916008327</v>
+        <v>0.1058683916008576</v>
       </c>
       <c r="F8">
         <v>1.91256645760798</v>
       </c>
       <c r="G8">
-        <v>1.640384873275295</v>
+        <v>1.640384873275309</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1628139867858565</v>
+        <v>0.1628139867858529</v>
       </c>
       <c r="J8">
-        <v>0.4635713817448774</v>
+        <v>0.4635713817448917</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.6198343119341132</v>
+        <v>0.6198343119341274</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,7 +678,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.377234600306679</v>
+        <v>2.377234600306565</v>
       </c>
       <c r="C9">
         <v>0.4931937232054224</v>
@@ -687,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1446333501192498</v>
+        <v>0.1446333501192179</v>
       </c>
       <c r="F9">
         <v>2.575554459612704</v>
@@ -699,16 +699,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1779796689662412</v>
+        <v>0.1779796689662199</v>
       </c>
       <c r="J9">
-        <v>0.6356782709040658</v>
+        <v>0.6356782709040445</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.8490865343357612</v>
+        <v>0.8490865343357541</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,34 +719,34 @@
         <v>2.869976363833473</v>
       </c>
       <c r="C10">
-        <v>0.5923822502272742</v>
+        <v>0.5923822502275868</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1740767553073823</v>
+        <v>0.1740767553073965</v>
       </c>
       <c r="F10">
-        <v>3.089960309297112</v>
+        <v>3.089960309297027</v>
       </c>
       <c r="G10">
-        <v>2.443480997953884</v>
+        <v>2.443480997953827</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1913144704025278</v>
+        <v>0.1913144704025349</v>
       </c>
       <c r="J10">
-        <v>0.7673637340088533</v>
+        <v>0.7673637340088391</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.024097012819077</v>
+        <v>1.024097012819063</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.100178860859671</v>
+        <v>3.100178860859501</v>
       </c>
       <c r="C11">
-        <v>0.6387245591951398</v>
+        <v>0.6387245591949124</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1877603306934006</v>
+        <v>0.187760330693358</v>
       </c>
       <c r="F11">
-        <v>3.331932969105139</v>
+        <v>3.331932969105111</v>
       </c>
       <c r="G11">
         <v>2.612993675215833</v>
@@ -775,16 +775,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1980031653838203</v>
+        <v>0.1980031653837884</v>
       </c>
       <c r="J11">
-        <v>0.8288809362716165</v>
+        <v>0.8288809362716236</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.105723052993469</v>
+        <v>1.10572305299344</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.188388516019529</v>
+        <v>3.188388516019586</v>
       </c>
       <c r="C12">
-        <v>0.6564860632535101</v>
+        <v>0.6564860632532827</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1929911418554369</v>
+        <v>0.1929911418554653</v>
       </c>
       <c r="F12">
         <v>3.424901246665485</v>
@@ -813,16 +813,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.2006399527155018</v>
+        <v>0.2006399527155232</v>
       </c>
       <c r="J12">
-        <v>0.852453641462553</v>
+        <v>0.8524536414625601</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.136978074909713</v>
+        <v>1.136978074909734</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.169341963403099</v>
+        <v>3.169341963402928</v>
       </c>
       <c r="C13">
-        <v>0.6526506972269885</v>
+        <v>0.6526506972270454</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1918622786519535</v>
+        <v>0.1918622786519038</v>
       </c>
       <c r="F13">
-        <v>3.404815994368334</v>
+        <v>3.404815994368278</v>
       </c>
       <c r="G13">
-        <v>2.664315246647021</v>
+        <v>2.664315246646979</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.2000671986593368</v>
+        <v>0.2000671986593012</v>
       </c>
       <c r="J13">
-        <v>0.8473637020785461</v>
+        <v>0.8473637020785674</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.130230436200584</v>
+        <v>1.130230436200605</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,34 +871,34 @@
         <v>3.107414101848349</v>
       </c>
       <c r="C14">
-        <v>0.6401813145116648</v>
+        <v>0.6401813145116932</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1881896417464404</v>
+        <v>0.1881896417464475</v>
       </c>
       <c r="F14">
         <v>3.339553505954285</v>
       </c>
       <c r="G14">
-        <v>2.618354149168852</v>
+        <v>2.618354149168866</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1982179224576335</v>
+        <v>0.1982179224576583</v>
       </c>
       <c r="J14">
-        <v>0.8308144319866955</v>
+        <v>0.8308144319867026</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.108287162727386</v>
+        <v>1.1082871627274</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.069621885653021</v>
+        <v>3.069621885653135</v>
       </c>
       <c r="C15">
-        <v>0.6325723479692158</v>
+        <v>0.6325723479689884</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1859466824912985</v>
+        <v>0.1859466824913127</v>
       </c>
       <c r="F15">
-        <v>3.299758806782222</v>
+        <v>3.299758806782165</v>
       </c>
       <c r="G15">
-        <v>2.590376158162812</v>
+        <v>2.590376158162798</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1970991854710071</v>
+        <v>0.1970991854709965</v>
       </c>
       <c r="J15">
-        <v>0.8207151230130805</v>
+        <v>0.8207151230130521</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.094892981991322</v>
+        <v>1.094892981991308</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.855067604251246</v>
+        <v>2.85506760425136</v>
       </c>
       <c r="C16">
-        <v>0.5893812919161974</v>
+        <v>0.58938129191597</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1731889497223591</v>
+        <v>0.173188949722352</v>
       </c>
       <c r="F16">
         <v>3.074323072042091</v>
       </c>
       <c r="G16">
-        <v>2.432573689003888</v>
+        <v>2.432573689003902</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0.1908910593239597</v>
       </c>
       <c r="J16">
-        <v>0.7633796461253439</v>
+        <v>0.7633796461253226</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.018807646240141</v>
+        <v>1.018807646240148</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,31 +982,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.72510714669346</v>
+        <v>2.725107146693517</v>
       </c>
       <c r="C17">
-        <v>0.5632224647797557</v>
+        <v>0.5632224647797841</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1654417301651563</v>
+        <v>0.1654417301651705</v>
       </c>
       <c r="F17">
         <v>2.938195737607543</v>
       </c>
       <c r="G17">
-        <v>2.337871036926771</v>
+        <v>2.337871036926742</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.1872516310434307</v>
+        <v>0.18725163104342</v>
       </c>
       <c r="J17">
-        <v>0.7286497511414254</v>
+        <v>0.7286497511414325</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1023,16 +1023,16 @@
         <v>2.650915724470508</v>
       </c>
       <c r="C18">
-        <v>0.5482890096441508</v>
+        <v>0.548289009644094</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1610124974449434</v>
+        <v>0.1610124974449718</v>
       </c>
       <c r="F18">
-        <v>2.860635880520846</v>
+        <v>2.860635880520874</v>
       </c>
       <c r="G18">
         <v>2.284116575347852</v>
@@ -1041,16 +1041,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1852159556278927</v>
+        <v>0.1852159556279034</v>
       </c>
       <c r="J18">
-        <v>0.7088227693370044</v>
+        <v>0.7088227693369973</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.9463415296961912</v>
+        <v>0.9463415296962125</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,31 +1058,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.625886972126636</v>
+        <v>2.625886972126409</v>
       </c>
       <c r="C19">
-        <v>0.543251059017166</v>
+        <v>0.5432510590169102</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1595172178620956</v>
+        <v>0.1595172178620743</v>
       </c>
       <c r="F19">
         <v>2.834496538955136</v>
       </c>
       <c r="G19">
-        <v>2.266034040831926</v>
+        <v>2.266034040831912</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.1845362039574141</v>
+        <v>0.1845362039574248</v>
       </c>
       <c r="J19">
-        <v>0.7021339518235905</v>
+        <v>0.7021339518235692</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.738882731771071</v>
+        <v>2.738882731771355</v>
       </c>
       <c r="C20">
-        <v>0.5659952305528293</v>
+        <v>0.5659952305530567</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1108,25 +1108,25 @@
         <v>0.1662636135793676</v>
       </c>
       <c r="F20">
-        <v>2.952609130169975</v>
+        <v>2.952609130169947</v>
       </c>
       <c r="G20">
-        <v>2.347876947962817</v>
+        <v>2.347876947962803</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.1876329926692364</v>
+        <v>0.1876329926692328</v>
       </c>
       <c r="J20">
-        <v>0.7323311041527845</v>
+        <v>0.732331104152756</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.9775748494722549</v>
+        <v>0.9775748494722407</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1143,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1892669864464764</v>
+        <v>0.1892669864465191</v>
       </c>
       <c r="F21">
         <v>3.358684693039066</v>
@@ -1155,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.198758153691891</v>
+        <v>0.1987581536918732</v>
       </c>
       <c r="J21">
-        <v>0.8356674280821679</v>
+        <v>0.835667428082175</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.114722590187078</v>
+        <v>1.114722590187093</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.384438666418873</v>
+        <v>3.38443866641876</v>
       </c>
       <c r="C22">
-        <v>0.695973364973014</v>
+        <v>0.6959733649730424</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2045915882429341</v>
+        <v>0.2045915882429625</v>
       </c>
       <c r="F22">
         <v>3.631988640000856</v>
@@ -1193,16 +1193,16 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.206643171369894</v>
+        <v>0.2066431713699153</v>
       </c>
       <c r="J22">
-        <v>0.9048470350002589</v>
+        <v>0.9048470350002447</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.206399036875581</v>
+        <v>1.206399036875567</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,7 +1210,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.245654731185027</v>
+        <v>3.24565473118497</v>
       </c>
       <c r="C23">
         <v>0.6680185123810816</v>
@@ -1219,28 +1219,28 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1963832552309199</v>
+        <v>0.1963832552308773</v>
       </c>
       <c r="F23">
         <v>3.485326925233096</v>
       </c>
       <c r="G23">
-        <v>2.721146791746094</v>
+        <v>2.721146791746079</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.2023732543097942</v>
+        <v>0.2023732543097516</v>
       </c>
       <c r="J23">
-        <v>0.8677574204066332</v>
+        <v>0.8677574204065905</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.157262312161585</v>
+        <v>1.157262312161599</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.732653168114609</v>
+        <v>2.73265316811478</v>
       </c>
       <c r="C24">
-        <v>0.5647413369486003</v>
+        <v>0.5647413369487992</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1658919635607319</v>
+        <v>0.1658919635607461</v>
       </c>
       <c r="F24">
         <v>2.946090664439652</v>
       </c>
       <c r="G24">
-        <v>2.343351135639452</v>
+        <v>2.343351135639466</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.187460403590638</v>
+        <v>0.1874604035906309</v>
       </c>
       <c r="J24">
-        <v>0.7306663326877185</v>
+        <v>0.7306663326877043</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.9753634175454948</v>
+        <v>0.975363417545509</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.200151973602317</v>
+        <v>2.200151973602374</v>
       </c>
       <c r="C25">
-        <v>0.4575296814509215</v>
+        <v>0.4575296814508647</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1340020958123702</v>
+        <v>0.1340020958123596</v>
       </c>
       <c r="F25">
-        <v>2.392027540425445</v>
+        <v>2.392027540425474</v>
       </c>
       <c r="G25">
-        <v>1.962666858820711</v>
+        <v>1.962666858820739</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.1735363226349484</v>
+        <v>0.1735363226349769</v>
       </c>
       <c r="J25">
-        <v>0.5883432794490417</v>
+        <v>0.5883432794490489</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.7860905382475778</v>
+        <v>0.7860905382475849</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_41/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.820759103170275</v>
+        <v>1.820444106170669</v>
       </c>
       <c r="C2">
-        <v>0.3810368370068886</v>
+        <v>0.3809323990418818</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1111390428722103</v>
+        <v>0.1115128830000813</v>
       </c>
       <c r="F2">
-        <v>2.001663687022202</v>
+        <v>1.999162745373923</v>
       </c>
       <c r="G2">
-        <v>1.699709284976834</v>
+        <v>0.5394602388075498</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.157799560582603</v>
       </c>
       <c r="I2">
-        <v>0.1647018164627916</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4868953523449377</v>
+        <v>0.1640464067116412</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.4867985588869033</v>
       </c>
       <c r="L2">
-        <v>0.6509342901482853</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.651473145790888</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.569355055942992</v>
+        <v>1.569108946548454</v>
       </c>
       <c r="C3">
-        <v>0.3302431720971413</v>
+        <v>0.3301662115534896</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.09592554199268832</v>
+        <v>0.09625187178178862</v>
       </c>
       <c r="F3">
-        <v>1.745475028174596</v>
+        <v>1.743285693459669</v>
       </c>
       <c r="G3">
-        <v>1.529900693344672</v>
+        <v>0.4804034886823416</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.047891960865471</v>
       </c>
       <c r="I3">
-        <v>0.1594166294864152</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.4196310025513199</v>
+        <v>0.158829532495389</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.4195563516136573</v>
       </c>
       <c r="L3">
-        <v>0.5612199123312536</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.5616980040721842</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.417180879647049</v>
+        <v>1.41697227370318</v>
       </c>
       <c r="C4">
-        <v>0.2994353101894944</v>
+        <v>0.2993740241461182</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.08669269049964612</v>
+        <v>0.08699008117176277</v>
       </c>
       <c r="F4">
-        <v>1.591543640268426</v>
+        <v>1.589542529650558</v>
       </c>
       <c r="G4">
-        <v>1.429084463098377</v>
+        <v>0.4452597540215777</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.9827295477219593</v>
       </c>
       <c r="I4">
-        <v>0.1564659564566746</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3788933905293135</v>
+        <v>0.155920149338737</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.3788309724328087</v>
       </c>
       <c r="L4">
-        <v>0.5068506439971969</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.5072905953820239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.355635063104529</v>
+        <v>1.355440689167381</v>
       </c>
       <c r="C5">
-        <v>0.2869581848745213</v>
+        <v>0.286903028848613</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.08295338351882009</v>
+        <v>0.08323902830303709</v>
       </c>
       <c r="F5">
-        <v>1.529560601272962</v>
+        <v>1.527635567786575</v>
       </c>
       <c r="G5">
-        <v>1.388773925995523</v>
+        <v>0.4311875706362258</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.9566973402860555</v>
       </c>
       <c r="I5">
-        <v>0.1553306302995132</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3624112539254654</v>
+        <v>0.1548015154779314</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3623535230363046</v>
       </c>
       <c r="L5">
-        <v>0.4848462625462915</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0.4852704819672127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.345441276625024</v>
+        <v>1.34524920662389</v>
       </c>
       <c r="C6">
-        <v>0.2848905389056</v>
+        <v>0.2848363863962931</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.08233375964324452</v>
+        <v>0.08261745655431696</v>
       </c>
       <c r="F6">
-        <v>1.519310543560081</v>
+        <v>1.517398109045658</v>
       </c>
       <c r="G6">
-        <v>1.382124472409942</v>
+        <v>0.4288650639192468</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.9524045302707549</v>
       </c>
       <c r="I6">
-        <v>0.1551459713894801</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3596809523954647</v>
+        <v>0.154619621086475</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3596239830490973</v>
       </c>
       <c r="L6">
-        <v>0.4812008181668261</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0.4816224143824428</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.416349068627966</v>
+        <v>1.416140658685265</v>
       </c>
       <c r="C7">
-        <v>0.2992667489972405</v>
+        <v>0.299205546613905</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.08664217230755966</v>
+        <v>0.08693940439451708</v>
       </c>
       <c r="F7">
-        <v>1.590704826912372</v>
+        <v>1.588704744638221</v>
       </c>
       <c r="G7">
-        <v>1.428537810205825</v>
+        <v>0.4450690028893121</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.9823764326119857</v>
       </c>
       <c r="I7">
-        <v>0.1564503821063745</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3786706544546803</v>
+        <v>0.1559048006090293</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.3786083007213605</v>
       </c>
       <c r="L7">
-        <v>0.5065533074938173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0.5069930474551896</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.733567697009619</v>
+        <v>1.73327754598688</v>
       </c>
       <c r="C8">
-        <v>0.3634329226564148</v>
+        <v>0.3633382349957799</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1058683916008576</v>
+        <v>0.1062257947900989</v>
       </c>
       <c r="F8">
-        <v>1.91256645760798</v>
+        <v>1.910173700850166</v>
       </c>
       <c r="G8">
-        <v>1.640384873275309</v>
+        <v>0.5188455825405072</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.119382851475407</v>
       </c>
       <c r="I8">
-        <v>0.1628139867858529</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4635713817448917</v>
+        <v>0.1621822866714133</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.4634825345077829</v>
       </c>
       <c r="L8">
-        <v>0.6198343119341274</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0.6203524013378541</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.377234600306565</v>
+        <v>2.376738106644154</v>
       </c>
       <c r="C9">
-        <v>0.4931937232054224</v>
+        <v>0.4930216267810863</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1446333501192179</v>
+        <v>0.1451111565186949</v>
       </c>
       <c r="F9">
-        <v>2.575554459612704</v>
+        <v>2.572359033319771</v>
       </c>
       <c r="G9">
-        <v>2.087856341841999</v>
+        <v>0.6739754514093761</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.409553440923389</v>
       </c>
       <c r="I9">
-        <v>0.1779796689662199</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.6356782709040445</v>
+        <v>0.1771723231096374</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.6355243304725207</v>
       </c>
       <c r="L9">
-        <v>0.8490865343357541</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0.8497506198916511</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.869976363833473</v>
+        <v>2.869287064235664</v>
       </c>
       <c r="C10">
-        <v>0.5923822502275868</v>
+        <v>0.5921424465672089</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1740767553073965</v>
+        <v>0.174645355912439</v>
       </c>
       <c r="F10">
-        <v>3.089960309297027</v>
+        <v>3.086142203760346</v>
       </c>
       <c r="G10">
-        <v>2.443480997953827</v>
+        <v>0.7968067254647053</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.640670591716201</v>
       </c>
       <c r="I10">
-        <v>0.1913144704025349</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.7673637340088391</v>
+        <v>0.1903714273178636</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.7671501490824824</v>
       </c>
       <c r="L10">
-        <v>1.024097012819063</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1.024861888949665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.100178860859501</v>
+        <v>3.099389265795139</v>
       </c>
       <c r="C11">
-        <v>0.6387245591949124</v>
+        <v>0.6384505876211506</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.187760330693358</v>
+        <v>0.1883709591610767</v>
       </c>
       <c r="F11">
-        <v>3.331932969105111</v>
+        <v>3.327820858790176</v>
       </c>
       <c r="G11">
-        <v>2.612993675215833</v>
+        <v>0.8552511270071648</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1.750950770821859</v>
       </c>
       <c r="I11">
-        <v>0.1980031653837884</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.8288809362716236</v>
+        <v>0.1969962700137913</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.8286365974111121</v>
       </c>
       <c r="L11">
-        <v>1.10572305299344</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1.106531839460075</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.188388516019586</v>
+        <v>3.187558757342174</v>
       </c>
       <c r="C12">
-        <v>0.6564860632532827</v>
+        <v>0.6561985649371707</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1929911418554653</v>
+        <v>0.193617809582328</v>
       </c>
       <c r="F12">
-        <v>3.424901246665485</v>
+        <v>3.420675895891122</v>
       </c>
       <c r="G12">
-        <v>2.678479587916186</v>
+        <v>0.8778138014989878</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1.793571116917875</v>
       </c>
       <c r="I12">
-        <v>0.2006399527155232</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.8524536414625601</v>
+        <v>0.1996085053725238</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.8521970277995194</v>
       </c>
       <c r="L12">
-        <v>1.136978074909734</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1.137803151616808</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.169341963402928</v>
+        <v>3.168520958523516</v>
       </c>
       <c r="C13">
-        <v>0.6526506972270454</v>
+        <v>0.65236614015501</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1918622786519038</v>
+        <v>0.1924854861718543</v>
       </c>
       <c r="F13">
-        <v>3.404815994368278</v>
+        <v>3.400615123249423</v>
       </c>
       <c r="G13">
-        <v>2.664315246646979</v>
+        <v>0.8729342795434576</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1.784351742832868</v>
       </c>
       <c r="I13">
-        <v>0.2000671986593012</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.8473637020785674</v>
+        <v>0.1990410567811942</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.8471097619294667</v>
       </c>
       <c r="L13">
-        <v>1.130230436200605</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1.131052020611257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.107414101848349</v>
+        <v>3.106621248661384</v>
       </c>
       <c r="C14">
-        <v>0.6401813145116932</v>
+        <v>0.639906242534579</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1881896417464475</v>
+        <v>0.1888015871622031</v>
       </c>
       <c r="F14">
-        <v>3.339553505954285</v>
+        <v>3.335432119809866</v>
       </c>
       <c r="G14">
-        <v>2.618354149168866</v>
+        <v>0.8570983487668826</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.754439198137135</v>
       </c>
       <c r="I14">
-        <v>0.1982179224576583</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.8308144319867026</v>
+        <v>0.1972090150724668</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.8305690965683681</v>
       </c>
       <c r="L14">
-        <v>1.1082871627274</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1.109097296553507</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.069621885653135</v>
+        <v>3.068845979490902</v>
       </c>
       <c r="C15">
-        <v>0.6325723479689884</v>
+        <v>0.6323030058901509</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1859466824913127</v>
+        <v>0.1865517463488331</v>
       </c>
       <c r="F15">
-        <v>3.299758806782165</v>
+        <v>3.29568584724629</v>
       </c>
       <c r="G15">
-        <v>2.590376158162798</v>
+        <v>0.8474564969994987</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1.736232690314793</v>
       </c>
       <c r="I15">
-        <v>0.1970991854709965</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.8207151230130521</v>
+        <v>0.1961007840152291</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.8204749727761893</v>
       </c>
       <c r="L15">
-        <v>1.094892981991308</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1.095696056060227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.85506760425136</v>
+        <v>2.854384575499068</v>
       </c>
       <c r="C16">
-        <v>0.58938129191597</v>
+        <v>0.589143644992248</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.173188949722352</v>
+        <v>0.1737548199563008</v>
       </c>
       <c r="F16">
-        <v>3.074323072042091</v>
+        <v>3.070523934673133</v>
       </c>
       <c r="G16">
-        <v>2.432573689003902</v>
+        <v>0.7930440131111851</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1.633576920607069</v>
       </c>
       <c r="I16">
-        <v>0.1908910593239597</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.7633796461253226</v>
+        <v>0.18995214091699</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.7631679893656553</v>
       </c>
       <c r="L16">
-        <v>1.018807646240148</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1.019569608969867</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.725107146693517</v>
+        <v>2.724477626236421</v>
       </c>
       <c r="C17">
-        <v>0.5632224647797841</v>
+        <v>0.5630033311378497</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1654417301651705</v>
+        <v>0.1659837556401698</v>
       </c>
       <c r="F17">
-        <v>2.938195737607543</v>
+        <v>2.934561590983435</v>
       </c>
       <c r="G17">
-        <v>2.337871036926742</v>
+        <v>0.7603628274249559</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1.57199880460395</v>
       </c>
       <c r="I17">
-        <v>0.18725163104342</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.7286497511414325</v>
+        <v>0.1863486153240395</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.7284545757208534</v>
       </c>
       <c r="L17">
-        <v>0.9726845709958027</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0.9734207786280251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.650915724470508</v>
+        <v>2.650315821837125</v>
       </c>
       <c r="C18">
-        <v>0.548289009644094</v>
+        <v>0.5480802145977748</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1610124974449718</v>
+        <v>0.1615408749841194</v>
       </c>
       <c r="F18">
-        <v>2.860635880520874</v>
+        <v>2.857095645922129</v>
       </c>
       <c r="G18">
-        <v>2.284116575347852</v>
+        <v>0.7418030185843065</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1.537056801692415</v>
       </c>
       <c r="I18">
-        <v>0.1852159556279034</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.7088227693369973</v>
+        <v>0.1843333949720432</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.7086367402149776</v>
       </c>
       <c r="L18">
-        <v>0.9463415296962125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0.947062745294474</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.625886972126409</v>
+        <v>2.625296908870325</v>
       </c>
       <c r="C19">
-        <v>0.5432510590169102</v>
+        <v>0.5430457141068246</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1595172178620743</v>
+        <v>0.1600409853678002</v>
       </c>
       <c r="F19">
-        <v>2.834496538955136</v>
+        <v>2.830987941982613</v>
       </c>
       <c r="G19">
-        <v>2.266034040831912</v>
+        <v>0.7355580340570782</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1.525304412194714</v>
       </c>
       <c r="I19">
-        <v>0.1845362039574248</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.7021339518235692</v>
+        <v>0.183660537381467</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.7019509652145928</v>
       </c>
       <c r="L19">
-        <v>0.9374525531621742</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0.9381686636596029</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.738882731771355</v>
+        <v>2.738247637680786</v>
       </c>
       <c r="C20">
-        <v>0.5659952305530567</v>
+        <v>0.5657741588923386</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1662636135793676</v>
+        <v>0.1668081703039093</v>
       </c>
       <c r="F20">
-        <v>2.952609130169947</v>
+        <v>2.948957524498695</v>
       </c>
       <c r="G20">
-        <v>2.347876947962803</v>
+        <v>0.7638167890269898</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.578503807486129</v>
       </c>
       <c r="I20">
-        <v>0.1876329926692328</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.732331104152756</v>
+        <v>0.1867261757037788</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.7321342094855154</v>
       </c>
       <c r="L20">
-        <v>0.9775748494722407</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0.9783138176244321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.125574228373864</v>
+        <v>3.124773168953482</v>
       </c>
       <c r="C21">
-        <v>0.6438377797024089</v>
+        <v>0.6435599386074387</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1892669864465191</v>
+        <v>0.1898822362741939</v>
       </c>
       <c r="F21">
-        <v>3.358684693039066</v>
+        <v>3.354540015204037</v>
       </c>
       <c r="G21">
-        <v>2.631817308469209</v>
+        <v>0.8617375123245807</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.763200869442002</v>
       </c>
       <c r="I21">
-        <v>0.1987581536918732</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.835667428082175</v>
+        <v>0.1977441948193395</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.8354195832790623</v>
       </c>
       <c r="L21">
-        <v>1.114722590187093</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1.115536097026428</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.38443866641876</v>
+        <v>3.383516181999596</v>
       </c>
       <c r="C22">
-        <v>0.6959733649730424</v>
+        <v>0.6956549308841602</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2045915882429625</v>
+        <v>0.2052537750112151</v>
       </c>
       <c r="F22">
-        <v>3.631988640000856</v>
+        <v>3.62751037612108</v>
       </c>
       <c r="G22">
-        <v>2.825041461462234</v>
+        <v>0.9282819256474255</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.888989793782912</v>
       </c>
       <c r="I22">
-        <v>0.2066431713699153</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.9048470350002447</v>
+        <v>0.2055569781138367</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.9045621594936364</v>
       </c>
       <c r="L22">
-        <v>1.206399036875567</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1.207259253268354</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.24565473118497</v>
+        <v>3.244798381934402</v>
       </c>
       <c r="C23">
-        <v>0.6680185123810816</v>
+        <v>0.6677221025403526</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1963832552308773</v>
+        <v>0.1970203164582145</v>
       </c>
       <c r="F23">
-        <v>3.485326925233096</v>
+        <v>3.48102787710485</v>
       </c>
       <c r="G23">
-        <v>2.721146791746079</v>
+        <v>0.8925101106646167</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.82134509443371</v>
       </c>
       <c r="I23">
-        <v>0.2023732543097516</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.8677574204065905</v>
+        <v>0.201325841463273</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.8674926916480104</v>
       </c>
       <c r="L23">
-        <v>1.157262312161599</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1.158097805424056</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.73265316811478</v>
+        <v>2.732020597402311</v>
       </c>
       <c r="C24">
-        <v>0.5647413369487992</v>
+        <v>0.5645211424088643</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1658919635607461</v>
+        <v>0.1664353757196793</v>
       </c>
       <c r="F24">
-        <v>2.946090664439652</v>
+        <v>2.942446954915312</v>
       </c>
       <c r="G24">
-        <v>2.343351135639466</v>
+        <v>0.7622545441371074</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.575561471502539</v>
       </c>
       <c r="I24">
-        <v>0.1874604035906309</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.7306663326877043</v>
+        <v>0.186555305742452</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.7304702163088734</v>
       </c>
       <c r="L24">
-        <v>0.975363417545509</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0.9761011382389384</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.200151973602374</v>
+        <v>2.199717461436819</v>
       </c>
       <c r="C25">
-        <v>0.4575296814508647</v>
+        <v>0.4573801283925434</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1340020958123596</v>
+        <v>0.1344469876733996</v>
       </c>
       <c r="F25">
-        <v>2.392027540425474</v>
+        <v>2.389053981081119</v>
       </c>
       <c r="G25">
-        <v>1.962666858820739</v>
+        <v>0.6306502276552379</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.328288365922276</v>
       </c>
       <c r="I25">
-        <v>0.1735363226349769</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5883432794490489</v>
+        <v>0.1727774580007413</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.5882087123274715</v>
       </c>
       <c r="L25">
-        <v>0.7860905382475849</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0.7867161112761067</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_41/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.820444106170669</v>
+        <v>2.615051024989498</v>
       </c>
       <c r="C2">
-        <v>0.3809323990418818</v>
+        <v>0.4575761529272029</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1115128830000813</v>
+        <v>0.03617403090645954</v>
       </c>
       <c r="F2">
-        <v>1.999162745373923</v>
+        <v>2.461711408583071</v>
       </c>
       <c r="G2">
-        <v>0.5394602388075498</v>
+        <v>0.0008270162951118605</v>
       </c>
       <c r="H2">
-        <v>1.157799560582603</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1640464067116412</v>
+        <v>0.1031185487180792</v>
       </c>
       <c r="K2">
-        <v>0.4867985588869033</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1051288751156321</v>
       </c>
       <c r="M2">
-        <v>0.651473145790888</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.4000714138476056</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>2.044595854034426</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.569108946548454</v>
+        <v>2.277413183751776</v>
       </c>
       <c r="C3">
-        <v>0.3301662115534896</v>
+        <v>0.3979228847493346</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.09625187178178862</v>
+        <v>0.03492752976746871</v>
       </c>
       <c r="F3">
-        <v>1.743285693459669</v>
+        <v>2.298590361137897</v>
       </c>
       <c r="G3">
-        <v>0.4804034886823416</v>
+        <v>0.0008355921843425854</v>
       </c>
       <c r="H3">
-        <v>1.047891960865471</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.158829532495389</v>
+        <v>0.1054108877618702</v>
       </c>
       <c r="K3">
-        <v>0.4195563516136573</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.09695325331141191</v>
       </c>
       <c r="M3">
-        <v>0.5616980040721842</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.3513235894891551</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.898007768029487</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.41697227370318</v>
+        <v>2.073564036156768</v>
       </c>
       <c r="C4">
-        <v>0.2993740241461182</v>
+        <v>0.3617193776319709</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.08699008117176277</v>
+        <v>0.03418323009931035</v>
       </c>
       <c r="F4">
-        <v>1.589542529650558</v>
+        <v>2.202545629827227</v>
       </c>
       <c r="G4">
-        <v>0.4452597540215777</v>
+        <v>0.0008409993916476681</v>
       </c>
       <c r="H4">
-        <v>0.9827295477219593</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.155920149338737</v>
+        <v>0.1069163007450555</v>
       </c>
       <c r="K4">
-        <v>0.3788309724328087</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.0920388027212411</v>
       </c>
       <c r="M4">
-        <v>0.5072905953820239</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.3219012467035895</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.811808826209941</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.355440689167381</v>
+        <v>1.991258401354401</v>
       </c>
       <c r="C5">
-        <v>0.286903028848613</v>
+        <v>0.3470518591978475</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.08323902830303709</v>
+        <v>0.03388425188485122</v>
       </c>
       <c r="F5">
-        <v>1.527635567786575</v>
+        <v>2.164356697272481</v>
       </c>
       <c r="G5">
-        <v>0.4311875706362258</v>
+        <v>0.0008432400579701294</v>
       </c>
       <c r="H5">
-        <v>0.9566973402860555</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1548015154779314</v>
+        <v>0.1075529828172446</v>
       </c>
       <c r="K5">
-        <v>0.3623535230363046</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.09006123132124344</v>
       </c>
       <c r="M5">
-        <v>0.4852704819672127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.3100254058152458</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.777554279505139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.34524920662389</v>
+        <v>1.977634858322119</v>
       </c>
       <c r="C6">
-        <v>0.2848363863962931</v>
+        <v>0.3446209295134679</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.08261745655431696</v>
+        <v>0.03383484197348841</v>
       </c>
       <c r="F6">
-        <v>1.517398109045658</v>
+        <v>2.158070501714832</v>
       </c>
       <c r="G6">
-        <v>0.4288650639192468</v>
+        <v>0.0008436144089090786</v>
       </c>
       <c r="H6">
-        <v>0.9524045302707549</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.154619621086475</v>
+        <v>0.1076600668540291</v>
       </c>
       <c r="K6">
-        <v>0.3596239830490973</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.0897343348624986</v>
       </c>
       <c r="M6">
-        <v>0.4816224143824428</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.3080599295669089</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.771916658828872</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.416140658685265</v>
+        <v>2.072451071636578</v>
       </c>
       <c r="C7">
-        <v>0.299205546613905</v>
+        <v>0.3615212456001871</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.08693940439451708</v>
+        <v>0.03417918164561851</v>
       </c>
       <c r="F7">
-        <v>1.588704744638221</v>
+        <v>2.202026860057913</v>
       </c>
       <c r="G7">
-        <v>0.4450690028893121</v>
+        <v>0.0008410294574776153</v>
       </c>
       <c r="H7">
-        <v>0.9823764326119857</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1559048006090293</v>
+        <v>0.1069247950307162</v>
       </c>
       <c r="K7">
-        <v>0.3786083007213605</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.09201203260667512</v>
       </c>
       <c r="M7">
-        <v>0.5069930474551896</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.3217406410298622</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.81134343332424</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.73327754598688</v>
+        <v>2.497848294692233</v>
       </c>
       <c r="C8">
-        <v>0.3633382349957799</v>
+        <v>0.436906569816756</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1062257947900989</v>
+        <v>0.03573925315935078</v>
       </c>
       <c r="F8">
-        <v>1.910173700850166</v>
+        <v>2.404561120579729</v>
       </c>
       <c r="G8">
-        <v>0.5188455825405072</v>
+        <v>0.000829944870620146</v>
       </c>
       <c r="H8">
-        <v>1.119382851475407</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1621822866714133</v>
+        <v>0.1038877380390879</v>
       </c>
       <c r="K8">
-        <v>0.4634825345077829</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1022871582129099</v>
       </c>
       <c r="M8">
-        <v>0.6203524013378541</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.3831487116328631</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.993208832023839</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.376738106644154</v>
+        <v>3.364836592467498</v>
       </c>
       <c r="C9">
-        <v>0.4930216267810863</v>
+        <v>0.5891528646132542</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1451111565186949</v>
+        <v>0.03901523287301423</v>
       </c>
       <c r="F9">
-        <v>2.572359033319771</v>
+        <v>2.838529403209378</v>
       </c>
       <c r="G9">
-        <v>0.6739754514093761</v>
+        <v>0.0008092527135262979</v>
       </c>
       <c r="H9">
-        <v>1.409553440923389</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1771723231096374</v>
+        <v>0.09877994060868645</v>
       </c>
       <c r="K9">
-        <v>0.6355243304725207</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1233440029294712</v>
       </c>
       <c r="M9">
-        <v>0.8497506198916511</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.5083105150610123</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>2.384283940498946</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.869287064235664</v>
+        <v>4.030129781769233</v>
       </c>
       <c r="C10">
-        <v>0.5921424465672089</v>
+        <v>0.7053614745753123</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.174645355912439</v>
+        <v>0.04163433528260452</v>
       </c>
       <c r="F10">
-        <v>3.086142203760346</v>
+        <v>3.186267074153818</v>
       </c>
       <c r="G10">
-        <v>0.7968067254647053</v>
+        <v>0.0007945651126676531</v>
       </c>
       <c r="H10">
-        <v>1.640670591716201</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1903714273178636</v>
+        <v>0.09565693645947349</v>
       </c>
       <c r="K10">
-        <v>0.7671501490824824</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1394790804233637</v>
       </c>
       <c r="M10">
-        <v>1.024861888949665</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.6042551242119529</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2.699189319866903</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.099389265795139</v>
+        <v>4.341082322912314</v>
       </c>
       <c r="C11">
-        <v>0.6384505876211506</v>
+        <v>0.7596058281129388</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1883709591610767</v>
+        <v>0.04289356033439695</v>
       </c>
       <c r="F11">
-        <v>3.327820858790176</v>
+        <v>3.352386993633587</v>
       </c>
       <c r="G11">
-        <v>0.8552511270071648</v>
+        <v>0.0007879641154203948</v>
       </c>
       <c r="H11">
-        <v>1.750950770821859</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1969962700137913</v>
+        <v>0.09440295025178713</v>
       </c>
       <c r="K11">
-        <v>0.8286365974111121</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1469920408419298</v>
       </c>
       <c r="M11">
-        <v>1.106531839460075</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.649050602507991</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>2.85012773399724</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.187558757342174</v>
+        <v>4.460232061909892</v>
       </c>
       <c r="C12">
-        <v>0.6561985649371707</v>
+        <v>0.7803872386270143</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.193617809582328</v>
+        <v>0.04338231472709619</v>
       </c>
       <c r="F12">
-        <v>3.420675895891122</v>
+        <v>3.416590285572084</v>
       </c>
       <c r="G12">
-        <v>0.8778138014989878</v>
+        <v>0.0007854731105748647</v>
       </c>
       <c r="H12">
-        <v>1.793571116917875</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1996085053725238</v>
+        <v>0.09395506092806016</v>
       </c>
       <c r="K12">
-        <v>0.8521970277995194</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1498645430777756</v>
       </c>
       <c r="M12">
-        <v>1.137803151616808</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.6662057096799501</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>2.908551746480072</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.168520958523516</v>
+        <v>4.434505282309374</v>
       </c>
       <c r="C13">
-        <v>0.65236614015501</v>
+        <v>0.7759001767501843</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1924854861718543</v>
+        <v>0.0432764845115674</v>
       </c>
       <c r="F13">
-        <v>3.400615123249423</v>
+        <v>3.40270255373008</v>
       </c>
       <c r="G13">
-        <v>0.8729342795434576</v>
+        <v>0.0007860092588102684</v>
       </c>
       <c r="H13">
-        <v>1.784351742832868</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1990410567811942</v>
+        <v>0.09405026969366048</v>
       </c>
       <c r="K13">
-        <v>0.8471097619294667</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1492446298016503</v>
       </c>
       <c r="M13">
-        <v>1.131052020611257</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.66250204765349</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>2.895909942356539</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.106621248661384</v>
+        <v>4.35085554481401</v>
       </c>
       <c r="C14">
-        <v>0.639906242534579</v>
+        <v>0.7613104521869047</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1888015871622031</v>
+        <v>0.04293351800371692</v>
       </c>
       <c r="F14">
-        <v>3.335432119809866</v>
+        <v>3.357642069843251</v>
       </c>
       <c r="G14">
-        <v>0.8570983487668826</v>
+        <v>0.0007877590236921997</v>
       </c>
       <c r="H14">
-        <v>1.754439198137135</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1972090150724668</v>
+        <v>0.09436554279822218</v>
       </c>
       <c r="K14">
-        <v>0.8305690965683681</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1472277959023813</v>
       </c>
       <c r="M14">
-        <v>1.109097296553507</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.6504579497261886</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>2.854907920620406</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.068845979490902</v>
+        <v>4.299806342230681</v>
       </c>
       <c r="C15">
-        <v>0.6323030058901509</v>
+        <v>0.752406451135613</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1865517463488331</v>
+        <v>0.0427250629521172</v>
       </c>
       <c r="F15">
-        <v>3.29568584724629</v>
+        <v>3.330215151637276</v>
       </c>
       <c r="G15">
-        <v>0.8474564969994987</v>
+        <v>0.0007888318385944615</v>
       </c>
       <c r="H15">
-        <v>1.736232690314793</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1961007840152291</v>
+        <v>0.09456226566811665</v>
       </c>
       <c r="K15">
-        <v>0.8204749727761893</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1459960923326875</v>
       </c>
       <c r="M15">
-        <v>1.095696056060227</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.6431064508399587</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>2.829963143686385</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.854384575499068</v>
+        <v>4.009992324020857</v>
       </c>
       <c r="C16">
-        <v>0.589143644992248</v>
+        <v>0.7018476951909633</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1737548199563008</v>
+        <v>0.04155358316995983</v>
       </c>
       <c r="F16">
-        <v>3.070523934673133</v>
+        <v>3.175583315866589</v>
       </c>
       <c r="G16">
-        <v>0.7930440131111851</v>
+        <v>0.0007949978810990093</v>
       </c>
       <c r="H16">
-        <v>1.633576920607069</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.18995214091699</v>
+        <v>0.09574248756154802</v>
       </c>
       <c r="K16">
-        <v>0.7631679893656553</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1389917901768101</v>
       </c>
       <c r="M16">
-        <v>1.019569608969867</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.601352976694173</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2.689493156491224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.724477626236421</v>
+        <v>3.834465683878307</v>
       </c>
       <c r="C17">
-        <v>0.5630033311378497</v>
+        <v>0.6712130402584648</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1659837556401698</v>
+        <v>0.04085371285280814</v>
       </c>
       <c r="F17">
-        <v>2.934561590983435</v>
+        <v>3.082858830993899</v>
       </c>
       <c r="G17">
-        <v>0.7603628274249559</v>
+        <v>0.0007987991911335028</v>
       </c>
       <c r="H17">
-        <v>1.57199880460395</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1863486153240395</v>
+        <v>0.09651120109831979</v>
       </c>
       <c r="K17">
-        <v>0.7284545757208534</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1347409693936754</v>
       </c>
       <c r="M17">
-        <v>0.9734207786280251</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.5760510176315918</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2.60539666349743</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.650315821837125</v>
+        <v>3.734275652548149</v>
       </c>
       <c r="C18">
-        <v>0.5480802145977748</v>
+        <v>0.6537199195880135</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1615408749841194</v>
+        <v>0.04045739727629893</v>
       </c>
       <c r="F18">
-        <v>2.857095645922129</v>
+        <v>3.030262342129419</v>
       </c>
       <c r="G18">
-        <v>0.7418030185843065</v>
+        <v>0.0008009933728603363</v>
       </c>
       <c r="H18">
-        <v>1.537056801692415</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1843333949720432</v>
+        <v>0.09696882953361552</v>
       </c>
       <c r="K18">
-        <v>0.7086367402149776</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1323121221121681</v>
       </c>
       <c r="M18">
-        <v>0.947062745294474</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.5616044399031708</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2.557739249793698</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.625296908870325</v>
+        <v>3.700479177234286</v>
       </c>
       <c r="C19">
-        <v>0.5430457141068246</v>
+        <v>0.6478177029697179</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1600409853678002</v>
+        <v>0.04032422144628089</v>
       </c>
       <c r="F19">
-        <v>2.830987941982613</v>
+        <v>3.012576052084881</v>
       </c>
       <c r="G19">
-        <v>0.7355580340570782</v>
+        <v>0.0008017377025802524</v>
       </c>
       <c r="H19">
-        <v>1.525304412194714</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.183660537381467</v>
+        <v>0.09712635008146364</v>
       </c>
       <c r="K19">
-        <v>0.7019509652145928</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1314924483662878</v>
       </c>
       <c r="M19">
-        <v>0.9381686636596029</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.5567305986443287</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>2.541721075635181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.738247637680786</v>
+        <v>3.853069887900972</v>
       </c>
       <c r="C20">
-        <v>0.5657741588923386</v>
+        <v>0.674460710718364</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1668081703039093</v>
+        <v>0.04092755574223705</v>
       </c>
       <c r="F20">
-        <v>2.948957524498695</v>
+        <v>3.092652245384926</v>
       </c>
       <c r="G20">
-        <v>0.7638167890269898</v>
+        <v>0.0007983937510278599</v>
       </c>
       <c r="H20">
-        <v>1.578503807486129</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1867261757037788</v>
+        <v>0.09642774733935866</v>
       </c>
       <c r="K20">
-        <v>0.7321342094855154</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1351917908975366</v>
       </c>
       <c r="M20">
-        <v>0.9783138176244321</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.5787332555545603</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2.614274015461248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.124773168953482</v>
+        <v>4.375385777270026</v>
       </c>
       <c r="C21">
-        <v>0.6435599386074387</v>
+        <v>0.7655889256669752</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1898822362741939</v>
+        <v>0.04303391320777017</v>
       </c>
       <c r="F21">
-        <v>3.354540015204037</v>
+        <v>3.370840871616508</v>
       </c>
       <c r="G21">
-        <v>0.8617375123245807</v>
+        <v>0.0007872448656946432</v>
       </c>
       <c r="H21">
-        <v>1.763200869442002</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1977441948193395</v>
+        <v>0.09427218130868908</v>
       </c>
       <c r="K21">
-        <v>0.8354195832790623</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.147819419907087</v>
       </c>
       <c r="M21">
-        <v>1.115536097026428</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.6539901517039368</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>2.866915431359359</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.383516181999596</v>
+        <v>4.725017475755408</v>
       </c>
       <c r="C22">
-        <v>0.6956549308841602</v>
+        <v>0.826570663220167</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2052537750112151</v>
+        <v>0.04448125709803996</v>
       </c>
       <c r="F22">
-        <v>3.62751037612108</v>
+        <v>3.560302361710171</v>
       </c>
       <c r="G22">
-        <v>0.9282819256474255</v>
+        <v>0.0007800072043220779</v>
       </c>
       <c r="H22">
-        <v>1.888989793782912</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2055569781138367</v>
+        <v>0.09302233161913875</v>
       </c>
       <c r="K22">
-        <v>0.9045621594936364</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1562340876784774</v>
       </c>
       <c r="M22">
-        <v>1.207259253268354</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.7043091660457748</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>3.039506681716219</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.244798381934402</v>
+        <v>4.537581211125541</v>
       </c>
       <c r="C23">
-        <v>0.6677221025403526</v>
+        <v>0.7938778692665096</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1970203164582145</v>
+        <v>0.04370149861012695</v>
       </c>
       <c r="F23">
-        <v>3.48102787710485</v>
+        <v>3.458426219659032</v>
       </c>
       <c r="G23">
-        <v>0.8925101106646167</v>
+        <v>0.0007838666827409679</v>
       </c>
       <c r="H23">
-        <v>1.82134509443371</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.201325841463273</v>
+        <v>0.09367373942485102</v>
       </c>
       <c r="K23">
-        <v>0.8674926916480104</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1517272676613572</v>
       </c>
       <c r="M23">
-        <v>1.158097805424056</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.677339428277719</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>2.946648368599426</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.732020597402311</v>
+        <v>3.844656691693956</v>
       </c>
       <c r="C24">
-        <v>0.5645211424088643</v>
+        <v>0.672992070852132</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1664353757196793</v>
+        <v>0.0408941526887947</v>
       </c>
       <c r="F24">
-        <v>2.942446954915312</v>
+        <v>3.088222436440759</v>
       </c>
       <c r="G24">
-        <v>0.7622545441371074</v>
+        <v>0.0007985770230371152</v>
       </c>
       <c r="H24">
-        <v>1.575561471502539</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.186555305742452</v>
+        <v>0.09646542815016446</v>
       </c>
       <c r="K24">
-        <v>0.7304702163088734</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1349879279490764</v>
       </c>
       <c r="M24">
-        <v>0.9761011382389384</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.5775203067347618</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>2.610258424957024</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.199717461436819</v>
+        <v>3.125979978668113</v>
       </c>
       <c r="C25">
-        <v>0.4573801283925434</v>
+        <v>0.5473339916185864</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1344469876733996</v>
+        <v>0.03809821627895715</v>
       </c>
       <c r="F25">
-        <v>2.389053981081119</v>
+        <v>2.716563721171894</v>
       </c>
       <c r="G25">
-        <v>0.6306502276552379</v>
+        <v>0.0008147504683444495</v>
       </c>
       <c r="H25">
-        <v>1.328288365922276</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1727774580007413</v>
+        <v>0.1000602326144708</v>
       </c>
       <c r="K25">
-        <v>0.5882087123274715</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1175396353647926</v>
       </c>
       <c r="M25">
-        <v>0.7867161112761067</v>
+        <v>0.4738373498739747</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>2.274164646790624</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_41/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.615051024989498</v>
+        <v>1.009861085152977</v>
       </c>
       <c r="C2">
-        <v>0.4575761529272029</v>
+        <v>0.1088940509720118</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03617403090645954</v>
+        <v>0.09951520052299756</v>
       </c>
       <c r="F2">
-        <v>2.461711408583071</v>
+        <v>1.17022435520758</v>
       </c>
       <c r="G2">
-        <v>0.0008270162951118605</v>
+        <v>0.0008249146773169137</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1031185487180792</v>
+        <v>0.07955849966813844</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.7470038573327713</v>
       </c>
       <c r="L2">
-        <v>0.1051288751156321</v>
+        <v>0.2577751709613381</v>
       </c>
       <c r="M2">
-        <v>0.4000714138476056</v>
+        <v>0.2605061590067201</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.092317692494604</v>
       </c>
       <c r="O2">
-        <v>2.044595854034426</v>
+        <v>2.022577676751268</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.277413183751776</v>
+        <v>0.8829515233644543</v>
       </c>
       <c r="C3">
-        <v>0.3979228847493346</v>
+        <v>0.1093827126022973</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.03492752976746871</v>
+        <v>0.09513781417114586</v>
       </c>
       <c r="F3">
-        <v>2.298590361137897</v>
+        <v>1.125393498586007</v>
       </c>
       <c r="G3">
-        <v>0.0008355921843425854</v>
+        <v>0.0008283875527430924</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1054108877618702</v>
+        <v>0.07572070542521558</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.649071267366466</v>
       </c>
       <c r="L3">
-        <v>0.09695325331141191</v>
+        <v>0.233916406602475</v>
       </c>
       <c r="M3">
-        <v>0.3513235894891551</v>
+        <v>0.2301903117054067</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1.139636561562997</v>
       </c>
       <c r="O3">
-        <v>1.898007768029487</v>
+        <v>2.014468370652438</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.073564036156768</v>
+        <v>0.8054295163734935</v>
       </c>
       <c r="C4">
-        <v>0.3617193776319709</v>
+        <v>0.1097129031751347</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.03418323009931035</v>
+        <v>0.09254213363992747</v>
       </c>
       <c r="F4">
-        <v>2.202545629827227</v>
+        <v>1.099499159262969</v>
       </c>
       <c r="G4">
-        <v>0.0008409993916476681</v>
+        <v>0.0008305930012816545</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1069163007450555</v>
+        <v>0.07335529892872827</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5890582225116816</v>
       </c>
       <c r="L4">
-        <v>0.0920388027212411</v>
+        <v>0.2194571604510145</v>
       </c>
       <c r="M4">
-        <v>0.3219012467035895</v>
+        <v>0.2117161796148856</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.169881207625558</v>
       </c>
       <c r="O4">
-        <v>1.811808826209941</v>
+        <v>2.012785389726432</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.991258401354401</v>
+        <v>0.7739275357587587</v>
       </c>
       <c r="C5">
-        <v>0.3470518591978475</v>
+        <v>0.109854967252673</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.03388425188485122</v>
+        <v>0.09150675898616356</v>
       </c>
       <c r="F5">
-        <v>2.164356697272481</v>
+        <v>1.089340705397511</v>
       </c>
       <c r="G5">
-        <v>0.0008432400579701294</v>
+        <v>0.0008315103969872671</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1075529828172446</v>
+        <v>0.07238897944958467</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.564623699311781</v>
       </c>
       <c r="L5">
-        <v>0.09006123132124344</v>
+        <v>0.2136099322898133</v>
       </c>
       <c r="M5">
-        <v>0.3100254058152458</v>
+        <v>0.204219944510303</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1.182499877318914</v>
       </c>
       <c r="O5">
-        <v>1.777554279505139</v>
+        <v>2.012898729015916</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.977634858322119</v>
+        <v>0.7687016851638191</v>
       </c>
       <c r="C6">
-        <v>0.3446209295134679</v>
+        <v>0.1098790083804744</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.03383484197348841</v>
+        <v>0.0913361662667036</v>
       </c>
       <c r="F6">
-        <v>2.158070501714832</v>
+        <v>1.087677206846429</v>
       </c>
       <c r="G6">
-        <v>0.0008436144089090786</v>
+        <v>0.0008316638645932491</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1076600668540291</v>
+        <v>0.07222837413480931</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.5605674140780934</v>
       </c>
       <c r="L6">
-        <v>0.0897343348624986</v>
+        <v>0.2126416455916242</v>
       </c>
       <c r="M6">
-        <v>0.3080599295669089</v>
+        <v>0.2029770539892937</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1.184612777505629</v>
       </c>
       <c r="O6">
-        <v>1.771916658828872</v>
+        <v>2.012964974556255</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.072451071636578</v>
+        <v>0.8050043251980696</v>
       </c>
       <c r="C7">
-        <v>0.3615212456001871</v>
+        <v>0.109714788790054</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.03417918164561851</v>
+        <v>0.0925280805556703</v>
       </c>
       <c r="F7">
-        <v>2.202026860057913</v>
+        <v>1.099360586222261</v>
       </c>
       <c r="G7">
-        <v>0.0008410294574776153</v>
+        <v>0.0008306052977862382</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1069247950307162</v>
+        <v>0.07334227669050009</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5887286145837152</v>
       </c>
       <c r="L7">
-        <v>0.09201203260667512</v>
+        <v>0.2193781239313779</v>
       </c>
       <c r="M7">
-        <v>0.3217406410298622</v>
+        <v>0.2116149566346479</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1.170050205410228</v>
       </c>
       <c r="O7">
-        <v>1.81134343332424</v>
+        <v>2.012783720685292</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.497848294692233</v>
+        <v>0.9660120195214006</v>
       </c>
       <c r="C8">
-        <v>0.436906569816756</v>
+        <v>0.1090562380616475</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.03573925315935078</v>
+        <v>0.0979863024026848</v>
       </c>
       <c r="F8">
-        <v>2.404561120579729</v>
+        <v>1.154417672596139</v>
       </c>
       <c r="G8">
-        <v>0.000829944870620146</v>
+        <v>0.0008260971264149542</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1038877380390879</v>
+        <v>0.07823700756316398</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.7132070059262077</v>
       </c>
       <c r="L8">
-        <v>0.1022871582129099</v>
+        <v>0.2495074876701295</v>
       </c>
       <c r="M8">
-        <v>0.3831487116328631</v>
+        <v>0.2500223165420543</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1.108382629160614</v>
       </c>
       <c r="O8">
-        <v>1.993208832023839</v>
+        <v>2.01907917337131</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.364836592467498</v>
+        <v>1.285514257234325</v>
       </c>
       <c r="C9">
-        <v>0.5891528646132542</v>
+        <v>0.1080076679833972</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.03901523287301423</v>
+        <v>0.1094568372063982</v>
       </c>
       <c r="F9">
-        <v>2.838529403209378</v>
+        <v>1.2761292293536</v>
       </c>
       <c r="G9">
-        <v>0.0008092527135262979</v>
+        <v>0.0008178233033661608</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09877994060868645</v>
+        <v>0.08777115439360017</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.9586565311643369</v>
       </c>
       <c r="L9">
-        <v>0.1233440029294712</v>
+        <v>0.31023439126038</v>
       </c>
       <c r="M9">
-        <v>0.5083105150610123</v>
+        <v>0.3265984460405491</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.9971651219133033</v>
       </c>
       <c r="O9">
-        <v>2.384283940498946</v>
+        <v>2.058988629034417</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.030129781769233</v>
+        <v>1.523430835515711</v>
       </c>
       <c r="C10">
-        <v>0.7053614745753123</v>
+        <v>0.1073908942562589</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.04163433528260452</v>
+        <v>0.1184060525502453</v>
       </c>
       <c r="F10">
-        <v>3.186267074153818</v>
+        <v>1.375102692231991</v>
       </c>
       <c r="G10">
-        <v>0.0007945651126676531</v>
+        <v>0.0008120705659539489</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09565693645947349</v>
+        <v>0.09474718079759725</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.140433435469049</v>
       </c>
       <c r="L10">
-        <v>0.1394790804233637</v>
+        <v>0.3560536633838325</v>
       </c>
       <c r="M10">
-        <v>0.6042551242119529</v>
+        <v>0.3838509540642079</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.9217575271952203</v>
       </c>
       <c r="O10">
-        <v>2.699189319866903</v>
+        <v>2.107186418249739</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.341082322912314</v>
+        <v>1.632565232333178</v>
       </c>
       <c r="C11">
-        <v>0.7596058281129388</v>
+        <v>0.1071450603477864</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.04289356033439695</v>
+        <v>0.1226033324555793</v>
       </c>
       <c r="F11">
-        <v>3.352386993633587</v>
+        <v>1.422478818504089</v>
       </c>
       <c r="G11">
-        <v>0.0007879641154203948</v>
+        <v>0.0008095197791502125</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09440295025178713</v>
+        <v>0.09791697707429137</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.223591131585806</v>
       </c>
       <c r="L11">
-        <v>0.1469920408419298</v>
+        <v>0.3772068952794285</v>
       </c>
       <c r="M11">
-        <v>0.649050602507991</v>
+        <v>0.4101652252053825</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.8889118313571664</v>
       </c>
       <c r="O11">
-        <v>2.85012773399724</v>
+        <v>2.133701402271925</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.460232061909892</v>
+        <v>1.674039949203234</v>
       </c>
       <c r="C12">
-        <v>0.7803872386270143</v>
+        <v>0.107057096165267</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.04338231472709619</v>
+        <v>0.1242119928290997</v>
       </c>
       <c r="F12">
-        <v>3.416590285572084</v>
+        <v>1.440781606180494</v>
       </c>
       <c r="G12">
-        <v>0.0007854731105748647</v>
+        <v>0.000808562988142216</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.09395506092806016</v>
+        <v>0.09911697231262906</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.255160810063472</v>
       </c>
       <c r="L12">
-        <v>0.1498645430777756</v>
+        <v>0.3852657533382029</v>
       </c>
       <c r="M12">
-        <v>0.6662057096799501</v>
+        <v>0.4201731738241605</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.8766918536490929</v>
       </c>
       <c r="O12">
-        <v>2.908551746480072</v>
+        <v>2.144445542808626</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.434505282309374</v>
+        <v>1.665100753609636</v>
       </c>
       <c r="C13">
-        <v>0.7759001767501843</v>
+        <v>0.1070758105184026</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.0432764845115674</v>
+        <v>0.1238646652187114</v>
       </c>
       <c r="F13">
-        <v>3.40270255373008</v>
+        <v>1.436823250619625</v>
       </c>
       <c r="G13">
-        <v>0.0007860092588102684</v>
+        <v>0.0008087686500811346</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.09405026969366048</v>
+        <v>0.09885854385316861</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.248357961902173</v>
       </c>
       <c r="L13">
-        <v>0.1492446298016503</v>
+        <v>0.3835279060246393</v>
       </c>
       <c r="M13">
-        <v>0.66250204765349</v>
+        <v>0.4180157820348498</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.8793138109211114</v>
       </c>
       <c r="O13">
-        <v>2.895909942356539</v>
+        <v>2.142099588207174</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.35085554481401</v>
+        <v>1.635974312272282</v>
       </c>
       <c r="C14">
-        <v>0.7613104521869047</v>
+        <v>0.1071377199083337</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.04293351800371692</v>
+        <v>0.1227352858118209</v>
       </c>
       <c r="F14">
-        <v>3.357642069843251</v>
+        <v>1.423977191306605</v>
       </c>
       <c r="G14">
-        <v>0.0007877590236921997</v>
+        <v>0.000809440882494422</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.09436554279822218</v>
+        <v>0.09801570708470564</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.226186716181275</v>
       </c>
       <c r="L14">
-        <v>0.1472277959023813</v>
+        <v>0.377868904552713</v>
       </c>
       <c r="M14">
-        <v>0.6504579497261886</v>
+        <v>0.4109876903772687</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.8879020680216652</v>
       </c>
       <c r="O14">
-        <v>2.854907920620406</v>
+        <v>2.13457097065853</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.299806342230681</v>
+        <v>1.618153333271351</v>
       </c>
       <c r="C15">
-        <v>0.752406451135613</v>
+        <v>0.1071763131362786</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.0427250629521172</v>
+        <v>0.1220460475702509</v>
       </c>
       <c r="F15">
-        <v>3.330215151637276</v>
+        <v>1.416156558039248</v>
       </c>
       <c r="G15">
-        <v>0.0007888318385944615</v>
+        <v>0.0008098538225778143</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.09456226566811665</v>
+        <v>0.09749940687041914</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.212616951297065</v>
       </c>
       <c r="L15">
-        <v>0.1459960923326875</v>
+        <v>0.3744090546060335</v>
       </c>
       <c r="M15">
-        <v>0.6431064508399587</v>
+        <v>0.4066885597815215</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.8931912678843723</v>
       </c>
       <c r="O15">
-        <v>2.829963143686385</v>
+        <v>2.130052430864822</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.009992324020857</v>
+        <v>1.516318346655652</v>
       </c>
       <c r="C16">
-        <v>0.7018476951909633</v>
+        <v>0.1074076701400699</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.04155358316995983</v>
+        <v>0.1181343822472734</v>
       </c>
       <c r="F16">
-        <v>3.175583315866589</v>
+        <v>1.372055923263957</v>
       </c>
       <c r="G16">
-        <v>0.0007949978810990093</v>
+        <v>0.0008122385654815047</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.09574248756154802</v>
+        <v>0.09453996962204769</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.135009326853407</v>
       </c>
       <c r="L16">
-        <v>0.1389917901768101</v>
+        <v>0.3546778234873074</v>
       </c>
       <c r="M16">
-        <v>0.601352976694173</v>
+        <v>0.3821370623782201</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.9239341049801766</v>
       </c>
       <c r="O16">
-        <v>2.689493156491224</v>
+        <v>2.105549611057143</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.834465683878307</v>
+        <v>1.454089920403845</v>
       </c>
       <c r="C17">
-        <v>0.6712130402584648</v>
+        <v>0.1075585878602006</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.04085371285280814</v>
+        <v>0.1157677890025859</v>
       </c>
       <c r="F17">
-        <v>3.082858830993899</v>
+        <v>1.345620895428738</v>
       </c>
       <c r="G17">
-        <v>0.0007987991911335028</v>
+        <v>0.0008137182118188105</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.09651120109831979</v>
+        <v>0.09272364868589023</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.087527716814748</v>
       </c>
       <c r="L17">
-        <v>0.1347409693936754</v>
+        <v>0.3426554958481205</v>
       </c>
       <c r="M17">
-        <v>0.5760510176315918</v>
+        <v>0.3671477336803974</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.9431729575506527</v>
       </c>
       <c r="O17">
-        <v>2.60539666349743</v>
+        <v>2.091723501812027</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.734275652548149</v>
+        <v>1.418381820921269</v>
       </c>
       <c r="C18">
-        <v>0.6537199195880135</v>
+        <v>0.1076486529234479</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.04045739727629893</v>
+        <v>0.1144184002270734</v>
       </c>
       <c r="F18">
-        <v>3.030262342129419</v>
+        <v>1.330636069209248</v>
       </c>
       <c r="G18">
-        <v>0.0008009933728603363</v>
+        <v>0.0008145755165573844</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.09696882953361552</v>
+        <v>0.09167859536594491</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.060260652306965</v>
       </c>
       <c r="L18">
-        <v>0.1323121221121681</v>
+        <v>0.3357694756813885</v>
       </c>
       <c r="M18">
-        <v>0.5616044399031708</v>
+        <v>0.3585513777916134</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.9543753006204376</v>
       </c>
       <c r="O18">
-        <v>2.557739249793698</v>
+        <v>2.084200312539735</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.700479177234286</v>
+        <v>1.406305585240602</v>
       </c>
       <c r="C19">
-        <v>0.6478177029697179</v>
+        <v>0.1076797036967996</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.04032422144628089</v>
+        <v>0.1139635171536142</v>
       </c>
       <c r="F19">
-        <v>3.012576052084881</v>
+        <v>1.32559952103982</v>
       </c>
       <c r="G19">
-        <v>0.0008017377025802524</v>
+        <v>0.0008148668700076761</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.09712635008146364</v>
+        <v>0.0913246920679569</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.051035526332669</v>
       </c>
       <c r="L19">
-        <v>0.1314924483662878</v>
+        <v>0.3334428331188377</v>
       </c>
       <c r="M19">
-        <v>0.5567305986443287</v>
+        <v>0.355644979510835</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.9581914471061213</v>
       </c>
       <c r="O19">
-        <v>2.541721075635181</v>
+        <v>2.081725529271438</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.853069887900972</v>
+        <v>1.460705419413557</v>
       </c>
       <c r="C20">
-        <v>0.674460710718364</v>
+        <v>0.1075421839747683</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.04092755574223705</v>
+        <v>0.1160184866056113</v>
       </c>
       <c r="F20">
-        <v>3.092652245384926</v>
+        <v>1.348412019910427</v>
       </c>
       <c r="G20">
-        <v>0.0007983937510278599</v>
+        <v>0.0008135600566114659</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.09642774733935866</v>
+        <v>0.09291703443378907</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.092577666027495</v>
       </c>
       <c r="L20">
-        <v>0.1351917908975366</v>
+        <v>0.3439322731912711</v>
       </c>
       <c r="M20">
-        <v>0.5787332555545603</v>
+        <v>0.3687407428767173</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.9411107456888885</v>
       </c>
       <c r="O20">
-        <v>2.614274015461248</v>
+        <v>2.09315058557479</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.375385777270026</v>
+        <v>1.644525292877688</v>
       </c>
       <c r="C21">
-        <v>0.7655889256669752</v>
+        <v>0.1071193953337541</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.04303391320777017</v>
+        <v>0.1230664807052122</v>
       </c>
       <c r="F21">
-        <v>3.370840871616508</v>
+        <v>1.427740352460305</v>
       </c>
       <c r="G21">
-        <v>0.0007872448656946432</v>
+        <v>0.0008092431867018426</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.09427218130868908</v>
+        <v>0.0982632763252127</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.232696681695671</v>
       </c>
       <c r="L21">
-        <v>0.147819419907087</v>
+        <v>0.3795297383272924</v>
       </c>
       <c r="M21">
-        <v>0.6539901517039368</v>
+        <v>0.4130507985619474</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.8853735035562877</v>
       </c>
       <c r="O21">
-        <v>2.866915431359359</v>
+        <v>2.136762854480338</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.725017475755408</v>
+        <v>1.765533349463624</v>
       </c>
       <c r="C22">
-        <v>0.826570663220167</v>
+        <v>0.1068730382884553</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.04448125709803996</v>
+        <v>0.1277854601481714</v>
       </c>
       <c r="F22">
-        <v>3.560302361710171</v>
+        <v>1.481711144884784</v>
       </c>
       <c r="G22">
-        <v>0.0007800072043220779</v>
+        <v>0.0008064749267804273</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.09302233161913875</v>
+        <v>0.1017554777611309</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.324743393266004</v>
       </c>
       <c r="L22">
-        <v>0.1562340876784774</v>
+        <v>0.4030800119559643</v>
       </c>
       <c r="M22">
-        <v>0.7043091660457748</v>
+        <v>0.4422647087274783</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.8502207951107756</v>
       </c>
       <c r="O22">
-        <v>3.039506681716219</v>
+        <v>2.169388779528589</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.537581211125541</v>
+        <v>1.700863173428161</v>
       </c>
       <c r="C23">
-        <v>0.7938778692665096</v>
+        <v>0.1070017351392032</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.04370149861012695</v>
+        <v>0.1252561621040549</v>
       </c>
       <c r="F23">
-        <v>3.458426219659032</v>
+        <v>1.452703070550484</v>
       </c>
       <c r="G23">
-        <v>0.0007838666827409679</v>
+        <v>0.0008079476742384316</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.09367373942485102</v>
+        <v>0.09989173242291827</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.275568855026165</v>
       </c>
       <c r="L23">
-        <v>0.1517272676613572</v>
+        <v>0.3904832828320508</v>
       </c>
       <c r="M23">
-        <v>0.677339428277719</v>
+        <v>0.4266478191130929</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.8688629037911513</v>
       </c>
       <c r="O23">
-        <v>2.946648368599426</v>
+        <v>2.151583335411772</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.844656691693956</v>
+        <v>1.457714342296526</v>
       </c>
       <c r="C24">
-        <v>0.672992070852132</v>
+        <v>0.1075495899009411</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.0408941526887947</v>
+        <v>0.115905111424059</v>
       </c>
       <c r="F24">
-        <v>3.088222436440759</v>
+        <v>1.347149490821948</v>
       </c>
       <c r="G24">
-        <v>0.0007985770230371152</v>
+        <v>0.0008136315378566289</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.09646542815016446</v>
+        <v>0.09282960732450007</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.090294489163512</v>
       </c>
       <c r="L24">
-        <v>0.1349879279490764</v>
+        <v>0.3433549621697836</v>
       </c>
       <c r="M24">
-        <v>0.5775203067347618</v>
+        <v>0.3680204776953104</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.942042631026931</v>
       </c>
       <c r="O24">
-        <v>2.610258424957024</v>
+        <v>2.092504078535654</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.125979978668113</v>
+        <v>1.198589396649623</v>
       </c>
       <c r="C25">
-        <v>0.5473339916185864</v>
+        <v>0.108264794775252</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.03809821627895715</v>
+        <v>0.1062662207527083</v>
       </c>
       <c r="F25">
-        <v>2.716563721171894</v>
+        <v>1.241614549341065</v>
       </c>
       <c r="G25">
-        <v>0.0008147504683444495</v>
+        <v>0.0008200028738309149</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1000602326144708</v>
+        <v>0.08519774729116847</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.8920496620581275</v>
       </c>
       <c r="L25">
-        <v>0.1175396353647926</v>
+        <v>0.2936101301092151</v>
       </c>
       <c r="M25">
-        <v>0.4738373498739747</v>
+        <v>0.3057254024554155</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1.026174520593562</v>
       </c>
       <c r="O25">
-        <v>2.274164646790624</v>
+        <v>2.045034685485149</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_41/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.009861085152977</v>
+        <v>0.7161694356617545</v>
       </c>
       <c r="C2">
-        <v>0.1088940509720118</v>
+        <v>0.2154196615050452</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.09951520052299756</v>
+        <v>0.2232326671488742</v>
       </c>
       <c r="F2">
-        <v>1.17022435520758</v>
+        <v>2.295485513928426</v>
       </c>
       <c r="G2">
-        <v>0.0008249146773169137</v>
+        <v>0.002495197373909955</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07955849966813844</v>
+        <v>0.08280919888975191</v>
       </c>
       <c r="K2">
-        <v>0.7470038573327713</v>
+        <v>0.3006274835378235</v>
       </c>
       <c r="L2">
-        <v>0.2577751709613381</v>
+        <v>0.3885996225053816</v>
       </c>
       <c r="M2">
-        <v>0.2605061590067201</v>
+        <v>0.254535608282378</v>
       </c>
       <c r="N2">
-        <v>1.092317692494604</v>
+        <v>2.310740456998725</v>
       </c>
       <c r="O2">
-        <v>2.022577676751268</v>
+        <v>4.436040179096722</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8829515233644543</v>
+        <v>0.6829294984964349</v>
       </c>
       <c r="C3">
-        <v>0.1093827126022973</v>
+        <v>0.2157782235239303</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.09513781417114586</v>
+        <v>0.2231367459586835</v>
       </c>
       <c r="F3">
-        <v>1.125393498586007</v>
+        <v>2.297476359903754</v>
       </c>
       <c r="G3">
-        <v>0.0008283875527430924</v>
+        <v>0.002497500711587901</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07572070542521558</v>
+        <v>0.08140212343493403</v>
       </c>
       <c r="K3">
-        <v>0.649071267366466</v>
+        <v>0.2723230496631714</v>
       </c>
       <c r="L3">
-        <v>0.233916406602475</v>
+        <v>0.3840320389043086</v>
       </c>
       <c r="M3">
-        <v>0.2301903117054067</v>
+        <v>0.2472488178745955</v>
       </c>
       <c r="N3">
-        <v>1.139636561562997</v>
+        <v>2.331335495937918</v>
       </c>
       <c r="O3">
-        <v>2.014468370652438</v>
+        <v>4.46054356098702</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8054295163734935</v>
+        <v>0.662791503486261</v>
       </c>
       <c r="C4">
-        <v>0.1097129031751347</v>
+        <v>0.2160165652860186</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.09254213363992747</v>
+        <v>0.223149177781746</v>
       </c>
       <c r="F4">
-        <v>1.099499159262969</v>
+        <v>2.299689748693119</v>
       </c>
       <c r="G4">
-        <v>0.0008305930012816545</v>
+        <v>0.002498991340806535</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07335529892872827</v>
+        <v>0.08052860848033205</v>
       </c>
       <c r="K4">
-        <v>0.5890582225116816</v>
+        <v>0.2549974999389946</v>
       </c>
       <c r="L4">
-        <v>0.2194571604510145</v>
+        <v>0.3813725297014869</v>
       </c>
       <c r="M4">
-        <v>0.2117161796148856</v>
+        <v>0.2428759042067554</v>
       </c>
       <c r="N4">
-        <v>1.169881207625558</v>
+        <v>2.344623970058002</v>
       </c>
       <c r="O4">
-        <v>2.012785389726432</v>
+        <v>4.477471367688025</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7739275357587587</v>
+        <v>0.6546540067851936</v>
       </c>
       <c r="C5">
-        <v>0.109854967252673</v>
+        <v>0.2161182789435436</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.09150675898616356</v>
+        <v>0.2231722330739103</v>
       </c>
       <c r="F5">
-        <v>1.089340705397511</v>
+        <v>2.300841291247941</v>
       </c>
       <c r="G5">
-        <v>0.0008315103969872671</v>
+        <v>0.002499618044358443</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07238897944958467</v>
+        <v>0.0801702523767851</v>
       </c>
       <c r="K5">
-        <v>0.564623699311781</v>
+        <v>0.2479510638619047</v>
       </c>
       <c r="L5">
-        <v>0.2136099322898133</v>
+        <v>0.3803253800952788</v>
       </c>
       <c r="M5">
-        <v>0.204219944510303</v>
+        <v>0.241119522237824</v>
       </c>
       <c r="N5">
-        <v>1.182499877318914</v>
+        <v>2.350200892119759</v>
       </c>
       <c r="O5">
-        <v>2.012898729015916</v>
+        <v>4.484843345705542</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7687016851638191</v>
+        <v>0.6533069618307934</v>
       </c>
       <c r="C6">
-        <v>0.1098790083804744</v>
+        <v>0.2161354459363221</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0913361662667036</v>
+        <v>0.2231771494582411</v>
       </c>
       <c r="F6">
-        <v>1.087677206846429</v>
+        <v>2.301047588326355</v>
       </c>
       <c r="G6">
-        <v>0.0008316638645932491</v>
+        <v>0.002499723272754977</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07222837413480931</v>
+        <v>0.08011060356383837</v>
       </c>
       <c r="K6">
-        <v>0.5605674140780934</v>
+        <v>0.2467818582559005</v>
       </c>
       <c r="L6">
-        <v>0.2126416455916242</v>
+        <v>0.3801537182584624</v>
       </c>
       <c r="M6">
-        <v>0.2029770539892937</v>
+        <v>0.2408294283975501</v>
       </c>
       <c r="N6">
-        <v>1.184612777505629</v>
+        <v>2.351136707666297</v>
       </c>
       <c r="O6">
-        <v>2.012964974556255</v>
+        <v>4.48609608145712</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8050043251980696</v>
+        <v>0.6626814785406623</v>
       </c>
       <c r="C7">
-        <v>0.109714788790054</v>
+        <v>0.2160179184370143</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0925280805556703</v>
+        <v>0.2231494158048832</v>
       </c>
       <c r="F7">
-        <v>1.099360586222261</v>
+        <v>2.299704267809467</v>
       </c>
       <c r="G7">
-        <v>0.0008306052977862382</v>
+        <v>0.00249899971453986</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07334227669050009</v>
+        <v>0.08052378523061776</v>
       </c>
       <c r="K7">
-        <v>0.5887286145837152</v>
+        <v>0.25490241254262</v>
       </c>
       <c r="L7">
-        <v>0.2193781239313779</v>
+        <v>0.381358258982992</v>
       </c>
       <c r="M7">
-        <v>0.2116149566346479</v>
+        <v>0.242852113086041</v>
       </c>
       <c r="N7">
-        <v>1.170050205410228</v>
+        <v>2.344698527330427</v>
       </c>
       <c r="O7">
-        <v>2.012783720685292</v>
+        <v>4.477568870057453</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9660120195214006</v>
+        <v>0.7046523352832708</v>
       </c>
       <c r="C8">
-        <v>0.1090562380616475</v>
+        <v>0.2155395288111421</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.0979863024026848</v>
+        <v>0.2231848209647787</v>
       </c>
       <c r="F8">
-        <v>1.154417672596139</v>
+        <v>2.295966494658316</v>
       </c>
       <c r="G8">
-        <v>0.0008260971264149542</v>
+        <v>0.002495975747738094</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07823700756316398</v>
+        <v>0.0823260322419479</v>
       </c>
       <c r="K8">
-        <v>0.7132070059262077</v>
+        <v>0.2908572543815211</v>
       </c>
       <c r="L8">
-        <v>0.2495074876701295</v>
+        <v>0.3869947171085073</v>
       </c>
       <c r="M8">
-        <v>0.2500223165420543</v>
+        <v>0.2520022152831736</v>
       </c>
       <c r="N8">
-        <v>1.108382629160614</v>
+        <v>2.317708204541884</v>
       </c>
       <c r="O8">
-        <v>2.01907917337131</v>
+        <v>4.444098415863294</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.285514257234325</v>
+        <v>0.7890875301921483</v>
       </c>
       <c r="C9">
-        <v>0.1080076679833972</v>
+        <v>0.214745020757185</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1094568372063982</v>
+        <v>0.2238180374076428</v>
       </c>
       <c r="F9">
-        <v>1.2761292293536</v>
+        <v>2.296485555555833</v>
       </c>
       <c r="G9">
-        <v>0.0008178233033661608</v>
+        <v>0.002490649169345293</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08777115439360017</v>
+        <v>0.0857838874231085</v>
       </c>
       <c r="K9">
-        <v>0.9586565311643369</v>
+        <v>0.3617742255355267</v>
       </c>
       <c r="L9">
-        <v>0.31023439126038</v>
+        <v>0.3991922295393522</v>
       </c>
       <c r="M9">
-        <v>0.3265984460405491</v>
+        <v>0.2707423210155184</v>
       </c>
       <c r="N9">
-        <v>0.9971651219133033</v>
+        <v>2.269878801944893</v>
       </c>
       <c r="O9">
-        <v>2.058988629034417</v>
+        <v>4.393386703088623</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.523430835515711</v>
+        <v>0.8523961493472996</v>
       </c>
       <c r="C10">
-        <v>0.1073908942562589</v>
+        <v>0.214247956138685</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1184060525502453</v>
+        <v>0.224624302377844</v>
       </c>
       <c r="F10">
-        <v>1.375102692231991</v>
+        <v>2.301635564790161</v>
       </c>
       <c r="G10">
-        <v>0.0008120705659539489</v>
+        <v>0.002487100007837948</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09474718079759725</v>
+        <v>0.08827743201822358</v>
       </c>
       <c r="K10">
-        <v>1.140433435469049</v>
+        <v>0.4141120157540854</v>
       </c>
       <c r="L10">
-        <v>0.3560536633838325</v>
+        <v>0.4088444819549437</v>
       </c>
       <c r="M10">
-        <v>0.3838509540642079</v>
+        <v>0.2849896644871848</v>
       </c>
       <c r="N10">
-        <v>0.9217575271952203</v>
+        <v>2.237840546420596</v>
       </c>
       <c r="O10">
-        <v>2.107186418249739</v>
+        <v>4.365210116362334</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.632565232333178</v>
+        <v>0.8814686961084988</v>
       </c>
       <c r="C11">
-        <v>0.1071450603477864</v>
+        <v>0.214040459741728</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1226033324555793</v>
+        <v>0.2250645999727681</v>
       </c>
       <c r="F11">
-        <v>1.422478818504089</v>
+        <v>2.305010677944054</v>
       </c>
       <c r="G11">
-        <v>0.0008095197791502125</v>
+        <v>0.002485563740316943</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09791697707429137</v>
+        <v>0.08940154230024433</v>
       </c>
       <c r="K11">
-        <v>1.223591131585806</v>
+        <v>0.4379700807352265</v>
       </c>
       <c r="L11">
-        <v>0.3772068952794285</v>
+        <v>0.4133841346223619</v>
       </c>
       <c r="M11">
-        <v>0.4101652252053825</v>
+        <v>0.2915738218073614</v>
       </c>
       <c r="N11">
-        <v>0.8889118313571664</v>
+        <v>2.223937762736311</v>
       </c>
       <c r="O11">
-        <v>2.133701402271925</v>
+        <v>4.35436048395394</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.674039949203234</v>
+        <v>0.8925164300922006</v>
       </c>
       <c r="C12">
-        <v>0.107057096165267</v>
+        <v>0.213964549048054</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1242119928290997</v>
+        <v>0.225241851592866</v>
       </c>
       <c r="F12">
-        <v>1.440781606180494</v>
+        <v>2.306436871421397</v>
       </c>
       <c r="G12">
-        <v>0.000808562988142216</v>
+        <v>0.002484993192534023</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.09911697231262906</v>
+        <v>0.08982573287253359</v>
       </c>
       <c r="K12">
-        <v>1.255160810063472</v>
+        <v>0.4470112483433297</v>
       </c>
       <c r="L12">
-        <v>0.3852657533382029</v>
+        <v>0.4151244350272236</v>
       </c>
       <c r="M12">
-        <v>0.4201731738241605</v>
+        <v>0.2940817294224303</v>
       </c>
       <c r="N12">
-        <v>0.8766918536490929</v>
+        <v>2.2187696527887</v>
       </c>
       <c r="O12">
-        <v>2.144445542808626</v>
+        <v>4.350534721407314</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.665100753609636</v>
+        <v>0.8901353974623873</v>
       </c>
       <c r="C13">
-        <v>0.1070758105184026</v>
+        <v>0.2139807795284021</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1238646652187114</v>
+        <v>0.2252032102138273</v>
       </c>
       <c r="F13">
-        <v>1.436823250619625</v>
+        <v>2.306123133249088</v>
       </c>
       <c r="G13">
-        <v>0.0008087686500811346</v>
+        <v>0.002485115572684655</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.09885854385316861</v>
+        <v>0.08973444218094073</v>
       </c>
       <c r="K13">
-        <v>1.248357961902173</v>
+        <v>0.4450637832991902</v>
       </c>
       <c r="L13">
-        <v>0.3835279060246393</v>
+        <v>0.4147486884909597</v>
       </c>
       <c r="M13">
-        <v>0.4180157820348498</v>
+        <v>0.2935409587819109</v>
       </c>
       <c r="N13">
-        <v>0.8793138109211114</v>
+        <v>2.219878402613258</v>
       </c>
       <c r="O13">
-        <v>2.142099588207174</v>
+        <v>4.351346095962413</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.635974312272282</v>
+        <v>0.8823768303298323</v>
       </c>
       <c r="C14">
-        <v>0.1071377199083337</v>
+        <v>0.2140341612183647</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1227352858118209</v>
+        <v>0.2250789720226223</v>
       </c>
       <c r="F14">
-        <v>1.423977191306605</v>
+        <v>2.305125045310959</v>
       </c>
       <c r="G14">
-        <v>0.000809440882494422</v>
+        <v>0.002485516576760848</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.09801570708470564</v>
+        <v>0.08943647058277548</v>
       </c>
       <c r="K14">
-        <v>1.226186716181275</v>
+        <v>0.4387137726672847</v>
       </c>
       <c r="L14">
-        <v>0.377868904552713</v>
+        <v>0.4135268855939387</v>
       </c>
       <c r="M14">
-        <v>0.4109876903772687</v>
+        <v>0.2917798566793763</v>
       </c>
       <c r="N14">
-        <v>0.8879020680216652</v>
+        <v>2.223510643752456</v>
       </c>
       <c r="O14">
-        <v>2.13457097065853</v>
+        <v>4.354040070671033</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.618153333271351</v>
+        <v>0.8776294893353054</v>
       </c>
       <c r="C15">
-        <v>0.1071763131362786</v>
+        <v>0.2140672055261241</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1220460475702509</v>
+        <v>0.2250042410732505</v>
       </c>
       <c r="F15">
-        <v>1.416156558039248</v>
+        <v>2.304532966032369</v>
       </c>
       <c r="G15">
-        <v>0.0008098538225778143</v>
+        <v>0.002485763660690623</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.09749940687041914</v>
+        <v>0.08925376041212019</v>
       </c>
       <c r="K15">
-        <v>1.212616951297065</v>
+        <v>0.4348250583984168</v>
       </c>
       <c r="L15">
-        <v>0.3744090546060335</v>
+        <v>0.4127812562636564</v>
       </c>
       <c r="M15">
-        <v>0.4066885597815215</v>
+        <v>0.2907030308182996</v>
       </c>
       <c r="N15">
-        <v>0.8931912678843723</v>
+        <v>2.225748072974726</v>
       </c>
       <c r="O15">
-        <v>2.130052430864822</v>
+        <v>4.355727024165219</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.516318346655652</v>
+        <v>0.8505016276993445</v>
       </c>
       <c r="C16">
-        <v>0.1074076701400699</v>
+        <v>0.2142618900176103</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1181343822472734</v>
+        <v>0.2245970029208024</v>
       </c>
       <c r="F16">
-        <v>1.372055923263957</v>
+        <v>2.301435737721505</v>
       </c>
       <c r="G16">
-        <v>0.0008122385654815047</v>
+        <v>0.002487201977143271</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.09453996962204769</v>
+        <v>0.08820376178675104</v>
       </c>
       <c r="K16">
-        <v>1.135009326853407</v>
+        <v>0.4125537887441908</v>
       </c>
       <c r="L16">
-        <v>0.3546778234873074</v>
+        <v>0.40855078508757</v>
       </c>
       <c r="M16">
-        <v>0.3821370623782201</v>
+        <v>0.2845614312236648</v>
       </c>
       <c r="N16">
-        <v>0.9239341049801766</v>
+        <v>2.238762639876502</v>
       </c>
       <c r="O16">
-        <v>2.105549611057143</v>
+        <v>4.365958746452606</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.454089920403845</v>
+        <v>0.8339290329462017</v>
       </c>
       <c r="C17">
-        <v>0.1075585878602006</v>
+        <v>0.2143860819019707</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1157677890025859</v>
+        <v>0.2243659695635749</v>
       </c>
       <c r="F17">
-        <v>1.345620895428738</v>
+        <v>2.299799856519428</v>
       </c>
       <c r="G17">
-        <v>0.0008137182118188105</v>
+        <v>0.002488104346544118</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.09272364868589023</v>
+        <v>0.08755699339965162</v>
       </c>
       <c r="K17">
-        <v>1.087527716814748</v>
+        <v>0.3989033972424068</v>
       </c>
       <c r="L17">
-        <v>0.3426554958481205</v>
+        <v>0.4059935212580257</v>
       </c>
       <c r="M17">
-        <v>0.3671477336803974</v>
+        <v>0.2808200060098116</v>
       </c>
       <c r="N17">
-        <v>0.9431729575506527</v>
+        <v>2.246918661959447</v>
       </c>
       <c r="O17">
-        <v>2.091723501812027</v>
+        <v>4.372739464646429</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.418381820921269</v>
+        <v>0.8244226648516246</v>
       </c>
       <c r="C18">
-        <v>0.1076486529234479</v>
+        <v>0.2144592672952363</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1144184002270734</v>
+        <v>0.2242400087927834</v>
       </c>
       <c r="F18">
-        <v>1.330636069209248</v>
+        <v>2.298956130706884</v>
       </c>
       <c r="G18">
-        <v>0.0008145755165573844</v>
+        <v>0.002488630735244792</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.09167859536594491</v>
+        <v>0.08718402878366049</v>
       </c>
       <c r="K18">
-        <v>1.060260652306965</v>
+        <v>0.3910567248305767</v>
       </c>
       <c r="L18">
-        <v>0.3357694756813885</v>
+        <v>0.4045366658116194</v>
       </c>
       <c r="M18">
-        <v>0.3585513777916134</v>
+        <v>0.2786777397172244</v>
       </c>
       <c r="N18">
-        <v>0.9543753006204376</v>
+        <v>2.251673002175687</v>
       </c>
       <c r="O18">
-        <v>2.084200312539735</v>
+        <v>4.376824809952268</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.406305585240602</v>
+        <v>0.8212084154384343</v>
       </c>
       <c r="C19">
-        <v>0.1076797036967996</v>
+        <v>0.214484348204202</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1139635171536142</v>
+        <v>0.2241985513477722</v>
       </c>
       <c r="F19">
-        <v>1.32559952103982</v>
+        <v>2.298687162407873</v>
       </c>
       <c r="G19">
-        <v>0.0008148668700076761</v>
+        <v>0.002488810228686887</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.0913246920679569</v>
+        <v>0.08705758490177118</v>
       </c>
       <c r="K19">
-        <v>1.051035526332669</v>
+        <v>0.3884007927351831</v>
       </c>
       <c r="L19">
-        <v>0.3334428331188377</v>
+        <v>0.4040458116867001</v>
       </c>
       <c r="M19">
-        <v>0.355644979510835</v>
+        <v>0.2779540769618762</v>
       </c>
       <c r="N19">
-        <v>0.9581914471061213</v>
+        <v>2.253293596854338</v>
       </c>
       <c r="O19">
-        <v>2.081725529271438</v>
+        <v>4.378239862949812</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.460705419413557</v>
+        <v>0.8356905538776971</v>
       </c>
       <c r="C20">
-        <v>0.1075421839747683</v>
+        <v>0.2143726800855887</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1160184866056113</v>
+        <v>0.2243898472799088</v>
       </c>
       <c r="F20">
-        <v>1.348412019910427</v>
+        <v>2.299963942541908</v>
       </c>
       <c r="G20">
-        <v>0.0008135600566114659</v>
+        <v>0.002488007525424757</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.09291703443378907</v>
+        <v>0.08762594253096978</v>
       </c>
       <c r="K20">
-        <v>1.092577666027495</v>
+        <v>0.4003560245375866</v>
       </c>
       <c r="L20">
-        <v>0.3439322731912711</v>
+        <v>0.4062642970394421</v>
       </c>
       <c r="M20">
-        <v>0.3687407428767173</v>
+        <v>0.2812172842150318</v>
       </c>
       <c r="N20">
-        <v>0.9411107456888885</v>
+        <v>2.246043897282564</v>
       </c>
       <c r="O20">
-        <v>2.09315058557479</v>
+        <v>4.371998474131345</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.644525292877688</v>
+        <v>0.8846546676707305</v>
       </c>
       <c r="C21">
-        <v>0.1071193953337541</v>
+        <v>0.2140184095414277</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1230664807052122</v>
+        <v>0.2251151786835557</v>
       </c>
       <c r="F21">
-        <v>1.427740352460305</v>
+        <v>2.305414190936716</v>
       </c>
       <c r="G21">
-        <v>0.0008092431867018426</v>
+        <v>0.002485398488588063</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.0982632763252127</v>
+        <v>0.08952403251564789</v>
       </c>
       <c r="K21">
-        <v>1.232696681695671</v>
+        <v>0.4405787482731682</v>
       </c>
       <c r="L21">
-        <v>0.3795297383272924</v>
+        <v>0.4138851837868316</v>
       </c>
       <c r="M21">
-        <v>0.4130507985619474</v>
+        <v>0.2922967394082363</v>
       </c>
       <c r="N21">
-        <v>0.8853735035562877</v>
+        <v>2.222441145517303</v>
       </c>
       <c r="O21">
-        <v>2.136762854480338</v>
+        <v>4.353241112967567</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.765533349463624</v>
+        <v>0.9168801688197448</v>
       </c>
       <c r="C22">
-        <v>0.1068730382884553</v>
+        <v>0.2138023928907273</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1277854601481714</v>
+        <v>0.2256505219080474</v>
       </c>
       <c r="F22">
-        <v>1.481711144884784</v>
+        <v>2.309839392093465</v>
       </c>
       <c r="G22">
-        <v>0.0008064749267804273</v>
+        <v>0.002483758610910651</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1017554777611309</v>
+        <v>0.09075587706206534</v>
       </c>
       <c r="K22">
-        <v>1.324743393266004</v>
+        <v>0.4669050908795214</v>
       </c>
       <c r="L22">
-        <v>0.4030800119559643</v>
+        <v>0.4189895566480573</v>
       </c>
       <c r="M22">
-        <v>0.4422647087274783</v>
+        <v>0.2996229973496938</v>
       </c>
       <c r="N22">
-        <v>0.8502207951107756</v>
+        <v>2.207578283397583</v>
       </c>
       <c r="O22">
-        <v>2.169388779528589</v>
+        <v>4.342630109654294</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.700863173428161</v>
+        <v>0.8996604860245725</v>
       </c>
       <c r="C23">
-        <v>0.1070017351392032</v>
+        <v>0.213916269572362</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1252561621040549</v>
+        <v>0.2253592076687987</v>
       </c>
       <c r="F23">
-        <v>1.452703070550484</v>
+        <v>2.307398712929711</v>
       </c>
       <c r="G23">
-        <v>0.0008079476742384316</v>
+        <v>0.002484627888115797</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.09989173242291827</v>
+        <v>0.09009921699318113</v>
       </c>
       <c r="K23">
-        <v>1.275568855026165</v>
+        <v>0.4528508583851192</v>
       </c>
       <c r="L23">
-        <v>0.3904832828320508</v>
+        <v>0.4162539940320613</v>
       </c>
       <c r="M23">
-        <v>0.4266478191130929</v>
+        <v>0.2957050988272272</v>
       </c>
       <c r="N23">
-        <v>0.8688629037911513</v>
+        <v>2.215459366379451</v>
       </c>
       <c r="O23">
-        <v>2.151583335411772</v>
+        <v>4.348142688397076</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.457714342296526</v>
+        <v>0.8348941034376196</v>
       </c>
       <c r="C24">
-        <v>0.1075495899009411</v>
+        <v>0.2143787334839971</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.115905111424059</v>
+        <v>0.2243790307820497</v>
       </c>
       <c r="F24">
-        <v>1.347149490821948</v>
+        <v>2.299889457813578</v>
       </c>
       <c r="G24">
-        <v>0.0008136315378566289</v>
+        <v>0.002488051274776234</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.09282960732450007</v>
+        <v>0.08759477414353611</v>
       </c>
       <c r="K24">
-        <v>1.090294489163512</v>
+        <v>0.3996992882159986</v>
       </c>
       <c r="L24">
-        <v>0.3433549621697836</v>
+        <v>0.4061418377142871</v>
       </c>
       <c r="M24">
-        <v>0.3680204776953104</v>
+        <v>0.2810376475357899</v>
       </c>
       <c r="N24">
-        <v>0.942042631026931</v>
+        <v>2.246439174877429</v>
       </c>
       <c r="O24">
-        <v>2.092504078535654</v>
+        <v>4.372332893365922</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.198589396649623</v>
+        <v>0.7660200447927537</v>
       </c>
       <c r="C25">
-        <v>0.108264794775252</v>
+        <v>0.2149446739977101</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1062662207527083</v>
+        <v>0.223586653333161</v>
       </c>
       <c r="F25">
-        <v>1.241614549341065</v>
+        <v>2.295506539147922</v>
       </c>
       <c r="G25">
-        <v>0.0008200028738309149</v>
+        <v>0.002492025922393029</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.08519774729116847</v>
+        <v>0.08485666007418047</v>
       </c>
       <c r="K25">
-        <v>0.8920496620581275</v>
+        <v>0.342546963326555</v>
       </c>
       <c r="L25">
-        <v>0.2936101301092151</v>
+        <v>0.3957706764585254</v>
       </c>
       <c r="M25">
-        <v>0.3057254024554155</v>
+        <v>0.2655880224525689</v>
       </c>
       <c r="N25">
-        <v>1.026174520593562</v>
+        <v>2.282272741409731</v>
       </c>
       <c r="O25">
-        <v>2.045034685485149</v>
+        <v>4.405509599261364</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_41/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7161694356617545</v>
+        <v>1.009861085153091</v>
       </c>
       <c r="C2">
-        <v>0.2154196615050452</v>
+        <v>0.1088940509722462</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2232326671488742</v>
+        <v>0.09951520052301177</v>
       </c>
       <c r="F2">
-        <v>2.295485513928426</v>
+        <v>1.170224355207594</v>
       </c>
       <c r="G2">
-        <v>0.002495197373909955</v>
+        <v>0.0008249146773171223</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.08280919888975191</v>
+        <v>0.0795584996680212</v>
       </c>
       <c r="K2">
-        <v>0.3006274835378235</v>
+        <v>0.747003857332686</v>
       </c>
       <c r="L2">
-        <v>0.3885996225053816</v>
+        <v>0.2577751709613381</v>
       </c>
       <c r="M2">
-        <v>0.254535608282378</v>
+        <v>0.2605061590067201</v>
       </c>
       <c r="N2">
-        <v>2.310740456998725</v>
+        <v>1.09231769249462</v>
       </c>
       <c r="O2">
-        <v>4.436040179096722</v>
+        <v>2.02257767675124</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6829294984964349</v>
+        <v>0.8829515233643406</v>
       </c>
       <c r="C3">
-        <v>0.2157782235239303</v>
+        <v>0.1093827126019065</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2231367459586835</v>
+        <v>0.09513781417114942</v>
       </c>
       <c r="F3">
-        <v>2.297476359903754</v>
+        <v>1.125393498586007</v>
       </c>
       <c r="G3">
-        <v>0.002497500711587901</v>
+        <v>0.0008283875527427205</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.08140212343493403</v>
+        <v>0.07572070542518006</v>
       </c>
       <c r="K3">
-        <v>0.2723230496631714</v>
+        <v>0.6490712673664802</v>
       </c>
       <c r="L3">
-        <v>0.3840320389043086</v>
+        <v>0.2339164066024182</v>
       </c>
       <c r="M3">
-        <v>0.2472488178745955</v>
+        <v>0.2301903117054067</v>
       </c>
       <c r="N3">
-        <v>2.331335495937918</v>
+        <v>1.139636561562995</v>
       </c>
       <c r="O3">
-        <v>4.46054356098702</v>
+        <v>2.014468370652438</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.662791503486261</v>
+        <v>0.8054295163736072</v>
       </c>
       <c r="C4">
-        <v>0.2160165652860186</v>
+        <v>0.109712903175371</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.223149177781746</v>
+        <v>0.09254213363993813</v>
       </c>
       <c r="F4">
-        <v>2.299689748693119</v>
+        <v>1.09949915926299</v>
       </c>
       <c r="G4">
-        <v>0.002498991340806535</v>
+        <v>0.0008305930013206036</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08052860848033205</v>
+        <v>0.07335529892866077</v>
       </c>
       <c r="K4">
-        <v>0.2549974999389946</v>
+        <v>0.5890582225117384</v>
       </c>
       <c r="L4">
-        <v>0.3813725297014869</v>
+        <v>0.2194571604510003</v>
       </c>
       <c r="M4">
-        <v>0.2428759042067554</v>
+        <v>0.2117161796148714</v>
       </c>
       <c r="N4">
-        <v>2.344623970058002</v>
+        <v>1.16988120762551</v>
       </c>
       <c r="O4">
-        <v>4.477471367688025</v>
+        <v>2.012785389726488</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6546540067851936</v>
+        <v>0.7739275357589861</v>
       </c>
       <c r="C5">
-        <v>0.2161182789435436</v>
+        <v>0.109854967252911</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2231722330739103</v>
+        <v>0.09150675898617777</v>
       </c>
       <c r="F5">
-        <v>2.300841291247941</v>
+        <v>1.089340705397525</v>
       </c>
       <c r="G5">
-        <v>0.002499618044358443</v>
+        <v>0.0008315103969280813</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0801702523767851</v>
+        <v>0.0723889794494923</v>
       </c>
       <c r="K5">
-        <v>0.2479510638619047</v>
+        <v>0.5646236993117952</v>
       </c>
       <c r="L5">
-        <v>0.3803253800952788</v>
+        <v>0.2136099322897067</v>
       </c>
       <c r="M5">
-        <v>0.241119522237824</v>
+        <v>0.2042199445103137</v>
       </c>
       <c r="N5">
-        <v>2.350200892119759</v>
+        <v>1.182499877318975</v>
       </c>
       <c r="O5">
-        <v>4.484843345705542</v>
+        <v>2.012898729015902</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6533069618307934</v>
+        <v>0.7687016851637054</v>
       </c>
       <c r="C6">
-        <v>0.2161354459363221</v>
+        <v>0.1098790083803927</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2231771494582411</v>
+        <v>0.09133616626674623</v>
       </c>
       <c r="F6">
-        <v>2.301047588326355</v>
+        <v>1.087677206846408</v>
       </c>
       <c r="G6">
-        <v>0.002499723272754977</v>
+        <v>0.000831663864652275</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.08011060356383837</v>
+        <v>0.07222837413479866</v>
       </c>
       <c r="K6">
-        <v>0.2467818582559005</v>
+        <v>0.560567414078136</v>
       </c>
       <c r="L6">
-        <v>0.3801537182584624</v>
+        <v>0.2126416455915887</v>
       </c>
       <c r="M6">
-        <v>0.2408294283975501</v>
+        <v>0.202977053989283</v>
       </c>
       <c r="N6">
-        <v>2.351136707666297</v>
+        <v>1.184612777505615</v>
       </c>
       <c r="O6">
-        <v>4.48609608145712</v>
+        <v>2.012964974556311</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6626814785406623</v>
+        <v>0.8050043251981833</v>
       </c>
       <c r="C7">
-        <v>0.2160179184370143</v>
+        <v>0.109714788789967</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2231494158048832</v>
+        <v>0.09252808055569162</v>
       </c>
       <c r="F7">
-        <v>2.299704267809467</v>
+        <v>1.09936058622224</v>
       </c>
       <c r="G7">
-        <v>0.00249899971453986</v>
+        <v>0.0008306052977663211</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08052378523061776</v>
+        <v>0.07334227669042903</v>
       </c>
       <c r="K7">
-        <v>0.25490241254262</v>
+        <v>0.5887286145838289</v>
       </c>
       <c r="L7">
-        <v>0.381358258982992</v>
+        <v>0.2193781239314987</v>
       </c>
       <c r="M7">
-        <v>0.242852113086041</v>
+        <v>0.2116149566346479</v>
       </c>
       <c r="N7">
-        <v>2.344698527330427</v>
+        <v>1.170050205410197</v>
       </c>
       <c r="O7">
-        <v>4.477568870057453</v>
+        <v>2.012783720685263</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7046523352832708</v>
+        <v>0.9660120195214006</v>
       </c>
       <c r="C8">
-        <v>0.2155395288111421</v>
+        <v>0.1090562380614095</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2231848209647787</v>
+        <v>0.09798630240266704</v>
       </c>
       <c r="F8">
-        <v>2.295966494658316</v>
+        <v>1.154417672596139</v>
       </c>
       <c r="G8">
-        <v>0.002495975747738094</v>
+        <v>0.0008260971263556858</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0823260322419479</v>
+        <v>0.07823700756316398</v>
       </c>
       <c r="K8">
-        <v>0.2908572543815211</v>
+        <v>0.7132070059263356</v>
       </c>
       <c r="L8">
-        <v>0.3869947171085073</v>
+        <v>0.249507487670229</v>
       </c>
       <c r="M8">
-        <v>0.2520022152831736</v>
+        <v>0.2500223165420543</v>
       </c>
       <c r="N8">
-        <v>2.317708204541884</v>
+        <v>1.108382629160648</v>
       </c>
       <c r="O8">
-        <v>4.444098415863294</v>
+        <v>2.019079173371352</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7890875301921483</v>
+        <v>1.285514257234212</v>
       </c>
       <c r="C9">
-        <v>0.214745020757185</v>
+        <v>0.108007667983248</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2238180374076428</v>
+        <v>0.109456837206384</v>
       </c>
       <c r="F9">
-        <v>2.296485555555833</v>
+        <v>1.2761292293536</v>
       </c>
       <c r="G9">
-        <v>0.002490649169345293</v>
+        <v>0.0008178233033076503</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0857838874231085</v>
+        <v>0.08777115439356464</v>
       </c>
       <c r="K9">
-        <v>0.3617742255355267</v>
+        <v>0.9586565311643369</v>
       </c>
       <c r="L9">
-        <v>0.3991922295393522</v>
+        <v>0.3102343912604795</v>
       </c>
       <c r="M9">
-        <v>0.2707423210155184</v>
+        <v>0.326598446040542</v>
       </c>
       <c r="N9">
-        <v>2.269878801944893</v>
+        <v>0.9971651219132802</v>
       </c>
       <c r="O9">
-        <v>4.393386703088623</v>
+        <v>2.058988629034417</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8523961493472996</v>
+        <v>1.523430835515398</v>
       </c>
       <c r="C10">
-        <v>0.214247956138685</v>
+        <v>0.1073908942565041</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.224624302377844</v>
+        <v>0.1184060525502595</v>
       </c>
       <c r="F10">
-        <v>2.301635564790161</v>
+        <v>1.375102692232005</v>
       </c>
       <c r="G10">
-        <v>0.002487100007837948</v>
+        <v>0.000812070565979185</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08827743201822358</v>
+        <v>0.09474718079762567</v>
       </c>
       <c r="K10">
-        <v>0.4141120157540854</v>
+        <v>1.140433435469049</v>
       </c>
       <c r="L10">
-        <v>0.4088444819549437</v>
+        <v>0.3560536633838041</v>
       </c>
       <c r="M10">
-        <v>0.2849896644871848</v>
+        <v>0.383850954064215</v>
       </c>
       <c r="N10">
-        <v>2.237840546420596</v>
+        <v>0.9217575271952176</v>
       </c>
       <c r="O10">
-        <v>4.365210116362334</v>
+        <v>2.107186418249711</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8814686961084988</v>
+        <v>1.632565232333434</v>
       </c>
       <c r="C11">
-        <v>0.214040459741728</v>
+        <v>0.1071450603479285</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2250645999727681</v>
+        <v>0.1226033324555829</v>
       </c>
       <c r="F11">
-        <v>2.305010677944054</v>
+        <v>1.422478818504089</v>
       </c>
       <c r="G11">
-        <v>0.002485563740316943</v>
+        <v>0.00080951977909972</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08940154230024433</v>
+        <v>0.09791697707418479</v>
       </c>
       <c r="K11">
-        <v>0.4379700807352265</v>
+        <v>1.223591131585891</v>
       </c>
       <c r="L11">
-        <v>0.4133841346223619</v>
+        <v>0.3772068952794427</v>
       </c>
       <c r="M11">
-        <v>0.2915738218073614</v>
+        <v>0.4101652252053896</v>
       </c>
       <c r="N11">
-        <v>2.223937762736311</v>
+        <v>0.8889118313571469</v>
       </c>
       <c r="O11">
-        <v>4.35436048395394</v>
+        <v>2.133701402271839</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8925164300922006</v>
+        <v>1.674039949203234</v>
       </c>
       <c r="C12">
-        <v>0.213964549048054</v>
+        <v>0.107057096165466</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.225241851592866</v>
+        <v>0.1242119928290961</v>
       </c>
       <c r="F12">
-        <v>2.306436871421397</v>
+        <v>1.440781606180508</v>
       </c>
       <c r="G12">
-        <v>0.002484993192534023</v>
+        <v>0.0008085629881124548</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.08982573287253359</v>
+        <v>0.09911697231267169</v>
       </c>
       <c r="K12">
-        <v>0.4470112483433297</v>
+        <v>1.255160810063444</v>
       </c>
       <c r="L12">
-        <v>0.4151244350272236</v>
+        <v>0.3852657533381603</v>
       </c>
       <c r="M12">
-        <v>0.2940817294224303</v>
+        <v>0.4201731738241676</v>
       </c>
       <c r="N12">
-        <v>2.2187696527887</v>
+        <v>0.8766918536490973</v>
       </c>
       <c r="O12">
-        <v>4.350534721407314</v>
+        <v>2.144445542808626</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8901353974623873</v>
+        <v>1.665100753609806</v>
       </c>
       <c r="C13">
-        <v>0.2139807795284021</v>
+        <v>0.1070758105185199</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2252032102138273</v>
+        <v>0.1238646652186937</v>
       </c>
       <c r="F13">
-        <v>2.306123133249088</v>
+        <v>1.436823250619639</v>
       </c>
       <c r="G13">
-        <v>0.002485115572684655</v>
+        <v>0.0008087686500292973</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.08973444218094073</v>
+        <v>0.09885854385311887</v>
       </c>
       <c r="K13">
-        <v>0.4450637832991902</v>
+        <v>1.248357961902087</v>
       </c>
       <c r="L13">
-        <v>0.4147486884909597</v>
+        <v>0.3835279060245966</v>
       </c>
       <c r="M13">
-        <v>0.2935409587819109</v>
+        <v>0.4180157820348285</v>
       </c>
       <c r="N13">
-        <v>2.219878402613258</v>
+        <v>0.8793138109210883</v>
       </c>
       <c r="O13">
-        <v>4.351346095962413</v>
+        <v>2.142099588207174</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8823768303298323</v>
+        <v>1.635974312272225</v>
       </c>
       <c r="C14">
-        <v>0.2140341612183647</v>
+        <v>0.1071377199084687</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2250789720226223</v>
+        <v>0.1227352858118245</v>
       </c>
       <c r="F14">
-        <v>2.305125045310959</v>
+        <v>1.423977191306591</v>
       </c>
       <c r="G14">
-        <v>0.002485516576760848</v>
+        <v>0.0008094408824661844</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.08943647058277548</v>
+        <v>0.09801570708470564</v>
       </c>
       <c r="K14">
-        <v>0.4387137726672847</v>
+        <v>1.22618671618136</v>
       </c>
       <c r="L14">
-        <v>0.4135268855939387</v>
+        <v>0.3778689045526988</v>
       </c>
       <c r="M14">
-        <v>0.2917798566793763</v>
+        <v>0.4109876903772616</v>
       </c>
       <c r="N14">
-        <v>2.223510643752456</v>
+        <v>0.8879020680216385</v>
       </c>
       <c r="O14">
-        <v>4.354040070671033</v>
+        <v>2.134570970658558</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8776294893353054</v>
+        <v>1.618153333271465</v>
       </c>
       <c r="C15">
-        <v>0.2140672055261241</v>
+        <v>0.1071763131366268</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2250042410732505</v>
+        <v>0.1220460475702581</v>
       </c>
       <c r="F15">
-        <v>2.304532966032369</v>
+        <v>1.416156558039219</v>
       </c>
       <c r="G15">
-        <v>0.002485763660690623</v>
+        <v>0.000809853822524135</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.08925376041212019</v>
+        <v>0.09749940687046177</v>
       </c>
       <c r="K15">
-        <v>0.4348250583984168</v>
+        <v>1.212616951297036</v>
       </c>
       <c r="L15">
-        <v>0.4127812562636564</v>
+        <v>0.3744090546060193</v>
       </c>
       <c r="M15">
-        <v>0.2907030308182996</v>
+        <v>0.4066885597815428</v>
       </c>
       <c r="N15">
-        <v>2.225748072974726</v>
+        <v>0.8931912678843599</v>
       </c>
       <c r="O15">
-        <v>4.355727024165219</v>
+        <v>2.130052430864794</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8505016276993445</v>
+        <v>1.516318346655709</v>
       </c>
       <c r="C16">
-        <v>0.2142618900176103</v>
+        <v>0.1074076701404003</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2245970029208024</v>
+        <v>0.1181343822472734</v>
       </c>
       <c r="F16">
-        <v>2.301435737721505</v>
+        <v>1.372055923263957</v>
       </c>
       <c r="G16">
-        <v>0.002487201977143271</v>
+        <v>0.0008122385654276661</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.08820376178675104</v>
+        <v>0.09453996962191979</v>
       </c>
       <c r="K16">
-        <v>0.4125537887441908</v>
+        <v>1.135009326853378</v>
       </c>
       <c r="L16">
-        <v>0.40855078508757</v>
+        <v>0.3546778234874068</v>
       </c>
       <c r="M16">
-        <v>0.2845614312236648</v>
+        <v>0.3821370623782272</v>
       </c>
       <c r="N16">
-        <v>2.238762639876502</v>
+        <v>0.923934104980157</v>
       </c>
       <c r="O16">
-        <v>4.365958746452606</v>
+        <v>2.105549611057114</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8339290329462017</v>
+        <v>1.454089920403987</v>
       </c>
       <c r="C17">
-        <v>0.2143860819019707</v>
+        <v>0.1075585878602148</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2243659695635749</v>
+        <v>0.1157677890025859</v>
       </c>
       <c r="F17">
-        <v>2.299799856519428</v>
+        <v>1.345620895428723</v>
       </c>
       <c r="G17">
-        <v>0.002488104346544118</v>
+        <v>0.000813718211761184</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.08755699339965162</v>
+        <v>0.09272364868582983</v>
       </c>
       <c r="K17">
-        <v>0.3989033972424068</v>
+        <v>1.087527716814691</v>
       </c>
       <c r="L17">
-        <v>0.4059935212580257</v>
+        <v>0.3426554958481347</v>
       </c>
       <c r="M17">
-        <v>0.2808200060098116</v>
+        <v>0.3671477336803903</v>
       </c>
       <c r="N17">
-        <v>2.246918661959447</v>
+        <v>0.9431729575505736</v>
       </c>
       <c r="O17">
-        <v>4.372739464646429</v>
+        <v>2.091723501811941</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8244226648516246</v>
+        <v>1.418381820920956</v>
       </c>
       <c r="C18">
-        <v>0.2144592672952363</v>
+        <v>0.1076486529232064</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2242400087927834</v>
+        <v>0.1144184002270521</v>
       </c>
       <c r="F18">
-        <v>2.298956130706884</v>
+        <v>1.330636069209262</v>
       </c>
       <c r="G18">
-        <v>0.002488630735244792</v>
+        <v>0.0008145755165273898</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.08718402878366049</v>
+        <v>0.09167859536597334</v>
       </c>
       <c r="K18">
-        <v>0.3910567248305767</v>
+        <v>1.060260652307051</v>
       </c>
       <c r="L18">
-        <v>0.4045366658116194</v>
+        <v>0.3357694756813316</v>
       </c>
       <c r="M18">
-        <v>0.2786777397172244</v>
+        <v>0.3585513777916063</v>
       </c>
       <c r="N18">
-        <v>2.251673002175687</v>
+        <v>0.9543753006204421</v>
       </c>
       <c r="O18">
-        <v>4.376824809952268</v>
+        <v>2.084200312539792</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8212084154384343</v>
+        <v>1.406305585240517</v>
       </c>
       <c r="C19">
-        <v>0.214484348204202</v>
+        <v>0.1076797036971229</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2241985513477722</v>
+        <v>0.1139635171536142</v>
       </c>
       <c r="F19">
-        <v>2.298687162407873</v>
+        <v>1.32559952103982</v>
       </c>
       <c r="G19">
-        <v>0.002488810228686887</v>
+        <v>0.0008148668700079998</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.08705758490177118</v>
+        <v>0.09132469206790716</v>
       </c>
       <c r="K19">
-        <v>0.3884007927351831</v>
+        <v>1.05103552633264</v>
       </c>
       <c r="L19">
-        <v>0.4040458116867001</v>
+        <v>0.3334428331188093</v>
       </c>
       <c r="M19">
-        <v>0.2779540769618762</v>
+        <v>0.355644979510835</v>
       </c>
       <c r="N19">
-        <v>2.253293596854338</v>
+        <v>0.9581914471061648</v>
       </c>
       <c r="O19">
-        <v>4.378239862949812</v>
+        <v>2.081725529271353</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8356905538776971</v>
+        <v>1.460705419413415</v>
       </c>
       <c r="C20">
-        <v>0.2143726800855887</v>
+        <v>0.1075421839748785</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2243898472799088</v>
+        <v>0.1160184866056468</v>
       </c>
       <c r="F20">
-        <v>2.299963942541908</v>
+        <v>1.348412019910441</v>
       </c>
       <c r="G20">
-        <v>0.002488007525424757</v>
+        <v>0.0008135600565528057</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.08762594253096978</v>
+        <v>0.09291703443378552</v>
       </c>
       <c r="K20">
-        <v>0.4003560245375866</v>
+        <v>1.09257766602741</v>
       </c>
       <c r="L20">
-        <v>0.4062642970394421</v>
+        <v>0.3439322731913848</v>
       </c>
       <c r="M20">
-        <v>0.2812172842150318</v>
+        <v>0.3687407428767173</v>
       </c>
       <c r="N20">
-        <v>2.246043897282564</v>
+        <v>0.9411107456889436</v>
       </c>
       <c r="O20">
-        <v>4.371998474131345</v>
+        <v>2.093150585574705</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8846546676707305</v>
+        <v>1.644525292877518</v>
       </c>
       <c r="C21">
-        <v>0.2140184095414277</v>
+        <v>0.1071193953335268</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2251151786835557</v>
+        <v>0.123066480705198</v>
       </c>
       <c r="F21">
-        <v>2.305414190936716</v>
+        <v>1.427740352460305</v>
       </c>
       <c r="G21">
-        <v>0.002485398488588063</v>
+        <v>0.0008092431867014171</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.08952403251564789</v>
+        <v>0.09826327632524823</v>
       </c>
       <c r="K21">
-        <v>0.4405787482731682</v>
+        <v>1.232696681695643</v>
       </c>
       <c r="L21">
-        <v>0.4138851837868316</v>
+        <v>0.3795297383272356</v>
       </c>
       <c r="M21">
-        <v>0.2922967394082363</v>
+        <v>0.4130507985619545</v>
       </c>
       <c r="N21">
-        <v>2.222441145517303</v>
+        <v>0.88537350355627</v>
       </c>
       <c r="O21">
-        <v>4.353241112967567</v>
+        <v>2.136762854480253</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9168801688197448</v>
+        <v>1.765533349463595</v>
       </c>
       <c r="C22">
-        <v>0.2138023928907273</v>
+        <v>0.1068730382888106</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2256505219080474</v>
+        <v>0.1277854601481607</v>
       </c>
       <c r="F22">
-        <v>2.309839392093465</v>
+        <v>1.481711144884784</v>
       </c>
       <c r="G22">
-        <v>0.002483758610910651</v>
+        <v>0.00080647492683641</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.09075587706206534</v>
+        <v>0.1017554777611309</v>
       </c>
       <c r="K22">
-        <v>0.4669050908795214</v>
+        <v>1.324743393266033</v>
       </c>
       <c r="L22">
-        <v>0.4189895566480573</v>
+        <v>0.4030800119558648</v>
       </c>
       <c r="M22">
-        <v>0.2996229973496938</v>
+        <v>0.4422647087274925</v>
       </c>
       <c r="N22">
-        <v>2.207578283397583</v>
+        <v>0.8502207951107081</v>
       </c>
       <c r="O22">
-        <v>4.342630109654294</v>
+        <v>2.169388779528589</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8996604860245725</v>
+        <v>1.700863173428161</v>
       </c>
       <c r="C23">
-        <v>0.213916269572362</v>
+        <v>0.1070017351392067</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2253592076687987</v>
+        <v>0.1252561621040549</v>
       </c>
       <c r="F23">
-        <v>2.307398712929711</v>
+        <v>1.452703070550498</v>
       </c>
       <c r="G23">
-        <v>0.002484627888115797</v>
+        <v>0.0008079476742127946</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.09009921699318113</v>
+        <v>0.09989173242290406</v>
       </c>
       <c r="K23">
-        <v>0.4528508583851192</v>
+        <v>1.275568855026137</v>
       </c>
       <c r="L23">
-        <v>0.4162539940320613</v>
+        <v>0.390483282832065</v>
       </c>
       <c r="M23">
-        <v>0.2957050988272272</v>
+        <v>0.4266478191131284</v>
       </c>
       <c r="N23">
-        <v>2.215459366379451</v>
+        <v>0.8688629037911024</v>
       </c>
       <c r="O23">
-        <v>4.348142688397076</v>
+        <v>2.151583335411772</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8348941034376196</v>
+        <v>1.457714342296555</v>
       </c>
       <c r="C24">
-        <v>0.2143787334839971</v>
+        <v>0.1075495899007208</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2243790307820497</v>
+        <v>0.115905111424059</v>
       </c>
       <c r="F24">
-        <v>2.299889457813578</v>
+        <v>1.347149490821963</v>
       </c>
       <c r="G24">
-        <v>0.002488051274776234</v>
+        <v>0.0008136315378854164</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.08759477414353611</v>
+        <v>0.0928296073244681</v>
       </c>
       <c r="K24">
-        <v>0.3996992882159986</v>
+        <v>1.090294489163625</v>
       </c>
       <c r="L24">
-        <v>0.4061418377142871</v>
+        <v>0.3433549621697978</v>
       </c>
       <c r="M24">
-        <v>0.2810376475357899</v>
+        <v>0.3680204776953246</v>
       </c>
       <c r="N24">
-        <v>2.246439174877429</v>
+        <v>0.9420426310269834</v>
       </c>
       <c r="O24">
-        <v>4.372332893365922</v>
+        <v>2.09250407853574</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7660200447927537</v>
+        <v>1.198589396649481</v>
       </c>
       <c r="C25">
-        <v>0.2149446739977101</v>
+        <v>0.1082647947751951</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.223586653333161</v>
+        <v>0.106266220752719</v>
       </c>
       <c r="F25">
-        <v>2.295506539147922</v>
+        <v>1.241614549341065</v>
       </c>
       <c r="G25">
-        <v>0.002492025922393029</v>
+        <v>0.0008200028738307483</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.08485666007418047</v>
+        <v>0.08519774729118268</v>
       </c>
       <c r="K25">
-        <v>0.342546963326555</v>
+        <v>0.8920496620581275</v>
       </c>
       <c r="L25">
-        <v>0.3957706764585254</v>
+        <v>0.2936101301092293</v>
       </c>
       <c r="M25">
-        <v>0.2655880224525689</v>
+        <v>0.3057254024554226</v>
       </c>
       <c r="N25">
-        <v>2.282272741409731</v>
+        <v>1.02617452059356</v>
       </c>
       <c r="O25">
-        <v>4.405509599261364</v>
+        <v>2.04503468548512</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_41/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.009861085153091</v>
+        <v>2.567187255253657</v>
       </c>
       <c r="C2">
-        <v>0.1088940509722462</v>
+        <v>0.4971767795272228</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.09951520052301177</v>
+        <v>0.1127788402177554</v>
       </c>
       <c r="F2">
-        <v>1.170224355207594</v>
+        <v>0.7783258589381319</v>
       </c>
       <c r="G2">
-        <v>0.0008249146773171223</v>
+        <v>0.2267779168907538</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.002846302299992387</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0009946796906641353</v>
       </c>
       <c r="J2">
-        <v>0.0795584996680212</v>
+        <v>0.2290718353305081</v>
       </c>
       <c r="K2">
-        <v>0.747003857332686</v>
+        <v>0.2454967449943624</v>
       </c>
       <c r="L2">
-        <v>0.2577751709613381</v>
+        <v>0.1053695635397887</v>
       </c>
       <c r="M2">
-        <v>0.2605061590067201</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.09231769249462</v>
+        <v>0.3673433713649814</v>
       </c>
       <c r="O2">
-        <v>2.02257767675124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.5273193934565015</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.9091108941610315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8829515233643406</v>
+        <v>2.23868792032647</v>
       </c>
       <c r="C3">
-        <v>0.1093827126019065</v>
+        <v>0.4637269973059546</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.09513781417114942</v>
+        <v>0.1108922820171543</v>
       </c>
       <c r="F3">
-        <v>1.125393498586007</v>
+        <v>0.7510918431024507</v>
       </c>
       <c r="G3">
-        <v>0.0008283875527427205</v>
+        <v>0.2215289570662833</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.004328492826754793</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.001646967917982245</v>
       </c>
       <c r="J3">
-        <v>0.07572070542518006</v>
+        <v>0.2311582940899584</v>
       </c>
       <c r="K3">
-        <v>0.6490712673664802</v>
+        <v>0.2554188168526412</v>
       </c>
       <c r="L3">
-        <v>0.2339164066024182</v>
+        <v>0.09415299241629072</v>
       </c>
       <c r="M3">
-        <v>0.2301903117054067</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.139636561562995</v>
+        <v>0.3311496961771638</v>
       </c>
       <c r="O3">
-        <v>2.014468370652438</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.4606936872838503</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.902069212407369</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8054295163736072</v>
+        <v>2.036501518731541</v>
       </c>
       <c r="C4">
-        <v>0.109712903175371</v>
+        <v>0.4433093343168508</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.09254213363993813</v>
+        <v>0.1097329791755346</v>
       </c>
       <c r="F4">
-        <v>1.09949915926299</v>
+        <v>0.7350452713642213</v>
       </c>
       <c r="G4">
-        <v>0.0008305930013206036</v>
+        <v>0.2186835100492033</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.005432582957437204</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.002227538024645259</v>
       </c>
       <c r="J4">
-        <v>0.07335529892866077</v>
+        <v>0.2327052733888664</v>
       </c>
       <c r="K4">
-        <v>0.5890582225117384</v>
+        <v>0.2618572109068751</v>
       </c>
       <c r="L4">
-        <v>0.2194571604510003</v>
+        <v>0.08727291244507995</v>
       </c>
       <c r="M4">
-        <v>0.2117161796148714</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.16988120762551</v>
+        <v>0.3090311378595061</v>
       </c>
       <c r="O4">
-        <v>2.012785389726488</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.4197622522471818</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.8990951382342161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7739275357589861</v>
+        <v>1.95388546353189</v>
       </c>
       <c r="C5">
-        <v>0.109854967252911</v>
+        <v>0.4355285076603224</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.09150675898617777</v>
+        <v>0.1092304946659937</v>
       </c>
       <c r="F5">
-        <v>1.089340705397525</v>
+        <v>0.7281542553271194</v>
       </c>
       <c r="G5">
-        <v>0.0008315103969280813</v>
+        <v>0.2172967342695244</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0059313952063971</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.002580228337186519</v>
       </c>
       <c r="J5">
-        <v>0.0723889794494923</v>
+        <v>0.2332317008034437</v>
       </c>
       <c r="K5">
-        <v>0.5646236993117952</v>
+        <v>0.2643496096129638</v>
       </c>
       <c r="L5">
-        <v>0.2136099322897067</v>
+        <v>0.08457431291695627</v>
       </c>
       <c r="M5">
-        <v>0.2042199445103137</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.182499877318975</v>
+        <v>0.3002724718798362</v>
       </c>
       <c r="O5">
-        <v>2.012898729015902</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.403180557049474</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.8971816514881539</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7687016851637054</v>
+        <v>1.940044402859542</v>
       </c>
       <c r="C6">
-        <v>0.1098790083803927</v>
+        <v>0.4348668374369566</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.09133616626674623</v>
+        <v>0.1091108016946762</v>
       </c>
       <c r="F6">
-        <v>1.087677206846408</v>
+        <v>0.726389520367988</v>
       </c>
       <c r="G6">
-        <v>0.000831663864652275</v>
+        <v>0.2166838883195084</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.00601961749771332</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.002737812704931564</v>
       </c>
       <c r="J6">
-        <v>0.07222837413479866</v>
+        <v>0.2331166550152872</v>
       </c>
       <c r="K6">
-        <v>0.560567414078136</v>
+        <v>0.2645054316057465</v>
       </c>
       <c r="L6">
-        <v>0.2126416455915887</v>
+        <v>0.08425388082373786</v>
       </c>
       <c r="M6">
-        <v>0.202977053989283</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.184612777505615</v>
+        <v>0.2991024381000074</v>
       </c>
       <c r="O6">
-        <v>2.012964974556311</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.4005566952990876</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.8956285674226478</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8050043251981833</v>
+        <v>2.035073205147341</v>
       </c>
       <c r="C7">
-        <v>0.109714788789967</v>
+        <v>0.444929312031519</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.09252808055569162</v>
+        <v>0.1096278447243098</v>
       </c>
       <c r="F7">
-        <v>1.09936058622224</v>
+        <v>0.7332325187969602</v>
       </c>
       <c r="G7">
-        <v>0.0008306052977663211</v>
+        <v>0.2176056579439845</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.005445740386144815</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.002479982715160922</v>
       </c>
       <c r="J7">
-        <v>0.07334227669042903</v>
+        <v>0.2321499576269304</v>
       </c>
       <c r="K7">
-        <v>0.5887286145838289</v>
+        <v>0.2611751206003792</v>
       </c>
       <c r="L7">
-        <v>0.2193781239314987</v>
+        <v>0.08758621087550011</v>
       </c>
       <c r="M7">
-        <v>0.2116149566346479</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.170050205410197</v>
+        <v>0.3096868692176287</v>
       </c>
       <c r="O7">
-        <v>2.012783720685263</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.4198943306823324</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.8956456588318673</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9660120195214006</v>
+        <v>2.453594330884755</v>
       </c>
       <c r="C8">
-        <v>0.1090562380614095</v>
+        <v>0.487937714130851</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.09798630240266704</v>
+        <v>0.1120007553558882</v>
       </c>
       <c r="F8">
-        <v>1.154417672596139</v>
+        <v>0.7665264859048264</v>
       </c>
       <c r="G8">
-        <v>0.0008260971263556858</v>
+        <v>0.2234911783078815</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.003322139474077723</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.001478290402133986</v>
       </c>
       <c r="J8">
-        <v>0.07823700756316398</v>
+        <v>0.2289977759689279</v>
       </c>
       <c r="K8">
-        <v>0.7132070059263356</v>
+        <v>0.2479152054256115</v>
       </c>
       <c r="L8">
-        <v>0.249507487670229</v>
+        <v>0.1019684027427132</v>
       </c>
       <c r="M8">
-        <v>0.2500223165420543</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.108382629160648</v>
+        <v>0.355870839193031</v>
       </c>
       <c r="O8">
-        <v>2.019079173371352</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.5048228131172152</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.9018913523990051</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.285514257234212</v>
+        <v>3.271439590860894</v>
       </c>
       <c r="C9">
-        <v>0.108007667983248</v>
+        <v>0.5702275376965815</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.109456837206384</v>
+        <v>0.1168267731635986</v>
       </c>
       <c r="F9">
-        <v>1.2761292293536</v>
+        <v>0.8405356574038265</v>
       </c>
       <c r="G9">
-        <v>0.0008178233033076503</v>
+        <v>0.2401336459560852</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0007858392703501416</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.0006664554023316782</v>
       </c>
       <c r="J9">
-        <v>0.08777115439356464</v>
+        <v>0.2260137404109201</v>
       </c>
       <c r="K9">
-        <v>0.9586565311643369</v>
+        <v>0.2260263819337975</v>
       </c>
       <c r="L9">
-        <v>0.3102343912604795</v>
+        <v>0.1296270251235327</v>
       </c>
       <c r="M9">
-        <v>0.326598446040542</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9971651219132802</v>
+        <v>0.445987090872876</v>
       </c>
       <c r="O9">
-        <v>2.058988629034417</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.6706618440226322</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.9315911481521226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.523430835515398</v>
+        <v>3.874722709030323</v>
       </c>
       <c r="C10">
-        <v>0.1073908942565041</v>
+        <v>0.6381212850467932</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1184060525502595</v>
+        <v>0.1180577756173573</v>
       </c>
       <c r="F10">
-        <v>1.375102692232005</v>
+        <v>0.8838208161206609</v>
       </c>
       <c r="G10">
-        <v>0.000812070565979185</v>
+        <v>0.2496958314968154</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.000261765889725929</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.001255438569685019</v>
       </c>
       <c r="J10">
-        <v>0.09474718079762567</v>
+        <v>0.2227495699763082</v>
       </c>
       <c r="K10">
-        <v>1.140433435469049</v>
+        <v>0.2089999092421593</v>
       </c>
       <c r="L10">
-        <v>0.3560536633838041</v>
+        <v>0.1534950229117058</v>
       </c>
       <c r="M10">
-        <v>0.383850954064215</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9217575271952176</v>
+        <v>0.5005692995055</v>
       </c>
       <c r="O10">
-        <v>2.107186418249711</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.7869109787157456</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0.9454808991383175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.632565232333434</v>
+        <v>4.184263912758638</v>
       </c>
       <c r="C11">
-        <v>0.1071450603479285</v>
+        <v>0.7249791650913551</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1226033324555829</v>
+        <v>0.1021681630932854</v>
       </c>
       <c r="F11">
-        <v>1.422478818504089</v>
+        <v>0.7829663007430767</v>
       </c>
       <c r="G11">
-        <v>0.00080951977909972</v>
+        <v>0.2159262349901994</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01881054060609699</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.002040007507138064</v>
       </c>
       <c r="J11">
-        <v>0.09791697707418479</v>
+        <v>0.2015845282672615</v>
       </c>
       <c r="K11">
-        <v>1.223591131585891</v>
+        <v>0.1811071466863297</v>
       </c>
       <c r="L11">
-        <v>0.3772068952794427</v>
+        <v>0.1962634566756023</v>
       </c>
       <c r="M11">
-        <v>0.4101652252053896</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8889118313571469</v>
+        <v>0.4210796494497657</v>
       </c>
       <c r="O11">
-        <v>2.133701402271839</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.7887774921804507</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.829755314656623</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.674039949203234</v>
+        <v>4.32010601322321</v>
       </c>
       <c r="C12">
-        <v>0.107057096165466</v>
+        <v>0.7854768867854318</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1242119928290961</v>
+        <v>0.09325752308007207</v>
       </c>
       <c r="F12">
-        <v>1.440781606180508</v>
+        <v>0.6957739444870299</v>
       </c>
       <c r="G12">
-        <v>0.0008085629881124548</v>
+        <v>0.1884141785753073</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05749723959786479</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.002113873063947835</v>
       </c>
       <c r="J12">
-        <v>0.09911697231267169</v>
+        <v>0.185801149393825</v>
       </c>
       <c r="K12">
-        <v>1.255160810063444</v>
+        <v>0.1647392596706201</v>
       </c>
       <c r="L12">
-        <v>0.3852657533381603</v>
+        <v>0.2306260427953788</v>
       </c>
       <c r="M12">
-        <v>0.4201731738241676</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8766918536490973</v>
+        <v>0.3481306252820104</v>
       </c>
       <c r="O12">
-        <v>2.144445542808626</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.7647205820450651</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.7384448760186189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.665100753609806</v>
+        <v>4.328312893527311</v>
       </c>
       <c r="C13">
-        <v>0.1070758105185199</v>
+        <v>0.8312404078241968</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1238646652186937</v>
+        <v>0.08895519186219747</v>
       </c>
       <c r="F13">
-        <v>1.436823250619639</v>
+        <v>0.611368583272295</v>
       </c>
       <c r="G13">
-        <v>0.0008087686500292973</v>
+        <v>0.1623239152882334</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1132896528553573</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.00196510185455967</v>
       </c>
       <c r="J13">
-        <v>0.09885854385311887</v>
+        <v>0.1722677663108954</v>
       </c>
       <c r="K13">
-        <v>1.248357961902087</v>
+        <v>0.1549452776567577</v>
       </c>
       <c r="L13">
-        <v>0.3835279060245966</v>
+        <v>0.260685780397111</v>
       </c>
       <c r="M13">
-        <v>0.4180157820348285</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8793138109210883</v>
+        <v>0.2775760874751256</v>
       </c>
       <c r="O13">
-        <v>2.142099588207174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.7200619418222942</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.6547707272879393</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.635974312272225</v>
+        <v>4.276022174494244</v>
       </c>
       <c r="C14">
-        <v>0.1071377199084687</v>
+        <v>0.8574136401028909</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1227352858118245</v>
+        <v>0.08860474139151675</v>
       </c>
       <c r="F14">
-        <v>1.423977191306591</v>
+        <v>0.5542533064672241</v>
       </c>
       <c r="G14">
-        <v>0.0008094408824661844</v>
+        <v>0.1447959426796928</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1626868052182431</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.00185183389945287</v>
       </c>
       <c r="J14">
-        <v>0.09801570708470564</v>
+        <v>0.1638229861415397</v>
       </c>
       <c r="K14">
-        <v>1.22618671618136</v>
+        <v>0.1512975816772029</v>
       </c>
       <c r="L14">
-        <v>0.3778689045526988</v>
+        <v>0.2801758984793707</v>
       </c>
       <c r="M14">
-        <v>0.4109876903772616</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8879020680216385</v>
+        <v>0.2308067304078421</v>
       </c>
       <c r="O14">
-        <v>2.134570970658558</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.6798213069465504</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.5998699696959449</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.618153333271465</v>
+        <v>4.235640544985699</v>
       </c>
       <c r="C15">
-        <v>0.1071763131366268</v>
+        <v>0.8608877582637149</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1220460475702581</v>
+        <v>0.08888504000743147</v>
       </c>
       <c r="F15">
-        <v>1.416156558039219</v>
+        <v>0.5399817568178733</v>
       </c>
       <c r="G15">
-        <v>0.000809853822524135</v>
+        <v>0.1403771144046644</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1752250717592858</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.001894934240741719</v>
       </c>
       <c r="J15">
-        <v>0.09749940687046177</v>
+        <v>0.1620231033919168</v>
       </c>
       <c r="K15">
-        <v>1.212616951297036</v>
+        <v>0.1513688556795945</v>
       </c>
       <c r="L15">
-        <v>0.3744090546060193</v>
+        <v>0.283638351504294</v>
       </c>
       <c r="M15">
-        <v>0.4066885597815428</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8931912678843599</v>
+        <v>0.2193250692293915</v>
       </c>
       <c r="O15">
-        <v>2.130052430864794</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.6659098303898361</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.5866989848221635</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.516318346655709</v>
+        <v>3.972269137678893</v>
       </c>
       <c r="C16">
-        <v>0.1074076701404003</v>
+        <v>0.8214783120872653</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1181343822472734</v>
+        <v>0.08911983460366013</v>
       </c>
       <c r="F16">
-        <v>1.372055923263957</v>
+        <v>0.5383342792973522</v>
       </c>
       <c r="G16">
-        <v>0.0008122385654276661</v>
+        <v>0.140784285670243</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1626874380030898</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.001712484119916091</v>
       </c>
       <c r="J16">
-        <v>0.09453996962191979</v>
+        <v>0.165628641701467</v>
       </c>
       <c r="K16">
-        <v>1.135009326853378</v>
+        <v>0.1596641889312629</v>
       </c>
       <c r="L16">
-        <v>0.3546778234874068</v>
+        <v>0.2664281615306265</v>
       </c>
       <c r="M16">
-        <v>0.3821370623782272</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.923934104980157</v>
+        <v>0.2124166256213016</v>
       </c>
       <c r="O16">
-        <v>2.105549611057114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.6263021796412147</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.5949219229114817</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.454089920403987</v>
+        <v>3.7986151601541</v>
       </c>
       <c r="C17">
-        <v>0.1075585878602148</v>
+        <v>0.7774747513569764</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1157677890025859</v>
+        <v>0.08909656955455003</v>
       </c>
       <c r="F17">
-        <v>1.345620895428723</v>
+        <v>0.5668552527106741</v>
       </c>
       <c r="G17">
-        <v>0.000813718211761184</v>
+        <v>0.1503030928625932</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1250592730446272</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.001680884391457305</v>
       </c>
       <c r="J17">
-        <v>0.09272364868582983</v>
+        <v>0.172868566007395</v>
       </c>
       <c r="K17">
-        <v>1.087527716814691</v>
+        <v>0.1678568583463411</v>
       </c>
       <c r="L17">
-        <v>0.3426554958481347</v>
+        <v>0.2427755603303723</v>
       </c>
       <c r="M17">
-        <v>0.3671477336803903</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9431729575505736</v>
+        <v>0.2310690162603848</v>
       </c>
       <c r="O17">
-        <v>2.091723501811941</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.6171881578627421</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.6301472892358362</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.418381820920956</v>
+        <v>3.682767369189776</v>
       </c>
       <c r="C18">
-        <v>0.1076486529232064</v>
+        <v>0.7244092300864793</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1144184002270521</v>
+        <v>0.09112725174543135</v>
       </c>
       <c r="F18">
-        <v>1.330636069209262</v>
+        <v>0.6281795837360775</v>
       </c>
       <c r="G18">
-        <v>0.0008145755165273898</v>
+        <v>0.1701538259321467</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.0722871647475003</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.001440537283687426</v>
       </c>
       <c r="J18">
-        <v>0.09167859536597334</v>
+        <v>0.1847176465563862</v>
       </c>
       <c r="K18">
-        <v>1.060260652307051</v>
+        <v>0.178411080974664</v>
       </c>
       <c r="L18">
-        <v>0.3357694756813316</v>
+        <v>0.2121333423417298</v>
       </c>
       <c r="M18">
-        <v>0.3585513777916063</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9543753006204421</v>
+        <v>0.2771037094253614</v>
       </c>
       <c r="O18">
-        <v>2.084200312539792</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.6329195516164248</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.6969827062975895</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.406305585240517</v>
+        <v>3.621480345602095</v>
       </c>
       <c r="C19">
-        <v>0.1076797036971229</v>
+        <v>0.6745573272100671</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1139635171536142</v>
+        <v>0.09794849895186086</v>
       </c>
       <c r="F19">
-        <v>1.32559952103982</v>
+        <v>0.713263061576825</v>
       </c>
       <c r="G19">
-        <v>0.0008148668700079998</v>
+        <v>0.1966880575150327</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02693546996228946</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.001566774598412479</v>
       </c>
       <c r="J19">
-        <v>0.09132469206790716</v>
+        <v>0.1991629492038101</v>
       </c>
       <c r="K19">
-        <v>1.05103552633264</v>
+        <v>0.1913824433339588</v>
       </c>
       <c r="L19">
-        <v>0.3334428331188093</v>
+        <v>0.1813528370734403</v>
       </c>
       <c r="M19">
-        <v>0.355644979510835</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9581914471061648</v>
+        <v>0.3488349824979622</v>
       </c>
       <c r="O19">
-        <v>2.081725529271353</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.6683538557804027</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.783472688773756</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.460705419413415</v>
+        <v>3.715522981206789</v>
       </c>
       <c r="C20">
-        <v>0.1075421839748785</v>
+        <v>0.626174221660591</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1160184866056468</v>
+        <v>0.1173495898772323</v>
       </c>
       <c r="F20">
-        <v>1.348412019910441</v>
+        <v>0.8663392067776243</v>
       </c>
       <c r="G20">
-        <v>0.0008135600565528057</v>
+        <v>0.2436035827766077</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0003086044863911397</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.001785673547308519</v>
       </c>
       <c r="J20">
-        <v>0.09291703443378552</v>
+        <v>0.2217150229565519</v>
       </c>
       <c r="K20">
-        <v>1.09257766602741</v>
+        <v>0.2111674911915369</v>
       </c>
       <c r="L20">
-        <v>0.3439322731913848</v>
+        <v>0.1484918275522134</v>
       </c>
       <c r="M20">
-        <v>0.3687407428767173</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9411107456889436</v>
+        <v>0.4881005323175032</v>
       </c>
       <c r="O20">
-        <v>2.093150585574705</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.7572580998075864</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0.9302818900623038</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.644525292877518</v>
+        <v>4.17219045829188</v>
       </c>
       <c r="C21">
-        <v>0.1071193953335268</v>
+        <v>0.6687064155557891</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.123066480705198</v>
+        <v>0.1218972339740709</v>
       </c>
       <c r="F21">
-        <v>1.427740352460305</v>
+        <v>0.9239151267875769</v>
       </c>
       <c r="G21">
-        <v>0.0008092431867014171</v>
+        <v>0.2593105730964567</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>5.838222948417737E-06</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.002469295558704232</v>
       </c>
       <c r="J21">
-        <v>0.09826327632524823</v>
+        <v>0.2236227032134721</v>
       </c>
       <c r="K21">
-        <v>1.232696681695643</v>
+        <v>0.2031319976662491</v>
       </c>
       <c r="L21">
-        <v>0.3795297383272356</v>
+        <v>0.161573207416275</v>
       </c>
       <c r="M21">
-        <v>0.4130507985619545</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.88537350355627</v>
+        <v>0.5494988524527287</v>
       </c>
       <c r="O21">
-        <v>2.136762854480253</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.8554477752291731</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0.9679157088456236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.765533349463595</v>
+        <v>4.473090977022878</v>
       </c>
       <c r="C22">
-        <v>0.1068730382888106</v>
+        <v>0.6972309964021974</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1277854601481607</v>
+        <v>0.1238322144150672</v>
       </c>
       <c r="F22">
-        <v>1.481711144884784</v>
+        <v>0.9573964312851615</v>
       </c>
       <c r="G22">
-        <v>0.00080647492683641</v>
+        <v>0.2691905458322879</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.0001510564064153286</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.002849532935283783</v>
       </c>
       <c r="J22">
-        <v>0.1017554777611309</v>
+        <v>0.2247224760224498</v>
       </c>
       <c r="K22">
-        <v>1.324743393266033</v>
+        <v>0.1978547046873036</v>
       </c>
       <c r="L22">
-        <v>0.4030800119558648</v>
+        <v>0.1713470369912145</v>
       </c>
       <c r="M22">
-        <v>0.4422647087274925</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.8502207951107081</v>
+        <v>0.5822817314690525</v>
       </c>
       <c r="O22">
-        <v>2.169388779528589</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.9162361042583811</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0.9913794043986854</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.700863173428161</v>
+        <v>4.312885631843471</v>
       </c>
       <c r="C23">
-        <v>0.1070017351392067</v>
+        <v>0.6798096678267314</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1252561621040549</v>
+        <v>0.122906791375204</v>
       </c>
       <c r="F23">
-        <v>1.452703070550498</v>
+        <v>0.9414350536993368</v>
       </c>
       <c r="G23">
-        <v>0.0008079476742127946</v>
+        <v>0.265089391085283</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>5.007327040473797E-05</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.002333649687761508</v>
       </c>
       <c r="J23">
-        <v>0.09989173242290406</v>
+        <v>0.2247425820160913</v>
       </c>
       <c r="K23">
-        <v>1.275568855026137</v>
+        <v>0.2014078411173674</v>
       </c>
       <c r="L23">
-        <v>0.390483282832065</v>
+        <v>0.1656955240450699</v>
       </c>
       <c r="M23">
-        <v>0.4266478191131284</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.8688629037911024</v>
+        <v>0.5638305452360157</v>
       </c>
       <c r="O23">
-        <v>2.151583335411772</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.8833575797415563</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0.9826126950418512</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.457714342296555</v>
+        <v>3.705502081311238</v>
       </c>
       <c r="C24">
-        <v>0.1075495899007208</v>
+        <v>0.6176789375898579</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.115905111424059</v>
+        <v>0.1192499258712374</v>
       </c>
       <c r="F24">
-        <v>1.347149490821963</v>
+        <v>0.8796434705939191</v>
       </c>
       <c r="G24">
-        <v>0.0008136315378854164</v>
+        <v>0.2487286871215275</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.0001728112040163543</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001308124326326876</v>
       </c>
       <c r="J24">
-        <v>0.0928296073244681</v>
+        <v>0.2244740681652644</v>
       </c>
       <c r="K24">
-        <v>1.090294489163625</v>
+        <v>0.2144910600354422</v>
       </c>
       <c r="L24">
-        <v>0.3433549621697978</v>
+        <v>0.1450337365262797</v>
       </c>
       <c r="M24">
-        <v>0.3680204776953246</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.9420426310269834</v>
+        <v>0.4957874028852274</v>
       </c>
       <c r="O24">
-        <v>2.09250407853574</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.7596752342535282</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0.9469206127210157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.198589396649481</v>
+        <v>3.049904344078641</v>
       </c>
       <c r="C25">
-        <v>0.1082647947751951</v>
+        <v>0.5510705499239066</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.106266220752719</v>
+        <v>0.1153493185410248</v>
       </c>
       <c r="F25">
-        <v>1.241614549341065</v>
+        <v>0.8167877991787122</v>
       </c>
       <c r="G25">
-        <v>0.0008200028738307483</v>
+        <v>0.2333620162247243</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.001287676278977967</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.001129219113410684</v>
       </c>
       <c r="J25">
-        <v>0.08519774729118268</v>
+        <v>0.2255775735440793</v>
       </c>
       <c r="K25">
-        <v>0.8920496620581275</v>
+        <v>0.2303904196713482</v>
       </c>
       <c r="L25">
-        <v>0.2936101301092293</v>
+        <v>0.1227794106213622</v>
       </c>
       <c r="M25">
-        <v>0.3057254024554226</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1.02617452059356</v>
+        <v>0.4229094753886642</v>
       </c>
       <c r="O25">
-        <v>2.04503468548512</v>
+        <v>0.6264356289004098</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.9161474470148363</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_41/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.567187255253657</v>
+        <v>2.570569701673151</v>
       </c>
       <c r="C2">
-        <v>0.4971767795272228</v>
+        <v>0.4908057522515037</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1127788402177554</v>
+        <v>0.1107944005990511</v>
       </c>
       <c r="F2">
-        <v>0.7783258589381319</v>
+        <v>0.7580404955289168</v>
       </c>
       <c r="G2">
-        <v>0.2267779168907538</v>
+        <v>0.1977994125782558</v>
       </c>
       <c r="H2">
-        <v>0.002846302299992387</v>
+        <v>0.002467692770864838</v>
       </c>
       <c r="I2">
-        <v>0.0009946796906641353</v>
+        <v>0.0008139453344844227</v>
       </c>
       <c r="J2">
-        <v>0.2290718353305081</v>
+        <v>0.2581060256490346</v>
       </c>
       <c r="K2">
-        <v>0.2454967449943624</v>
+        <v>0.2304034374692598</v>
       </c>
       <c r="L2">
-        <v>0.1053695635397887</v>
+        <v>0.1233977975060228</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.05707521140295668</v>
       </c>
       <c r="N2">
-        <v>0.3673433713649814</v>
+        <v>0.1073246568177311</v>
       </c>
       <c r="O2">
-        <v>0.5273193934565015</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.3792873136953006</v>
       </c>
       <c r="Q2">
-        <v>0.9091108941610315</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.5309212958880209</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.8686728442027345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.23868792032647</v>
+        <v>2.243127568560624</v>
       </c>
       <c r="C3">
-        <v>0.4637269973059546</v>
+        <v>0.451779950834748</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1108922820171543</v>
+        <v>0.1092898674273961</v>
       </c>
       <c r="F3">
-        <v>0.7510918431024507</v>
+        <v>0.7337904162130968</v>
       </c>
       <c r="G3">
-        <v>0.2215289570662833</v>
+        <v>0.1943005616236491</v>
       </c>
       <c r="H3">
-        <v>0.004328492826754793</v>
+        <v>0.003776326370510008</v>
       </c>
       <c r="I3">
-        <v>0.001646967917982245</v>
+        <v>0.001237933567904026</v>
       </c>
       <c r="J3">
-        <v>0.2311582940899584</v>
+        <v>0.2590250371850047</v>
       </c>
       <c r="K3">
-        <v>0.2554188168526412</v>
+        <v>0.2403470782633299</v>
       </c>
       <c r="L3">
-        <v>0.09415299241629072</v>
+        <v>0.1291267415743214</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.06015703520740967</v>
       </c>
       <c r="N3">
-        <v>0.3311496961771638</v>
+        <v>0.09506574560816716</v>
       </c>
       <c r="O3">
-        <v>0.4606936872838503</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.341769366581758</v>
       </c>
       <c r="Q3">
-        <v>0.902069212407369</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.4633564383169784</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.8659066629732308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.036501518731541</v>
+        <v>2.041513070642281</v>
       </c>
       <c r="C4">
-        <v>0.4433093343168508</v>
+        <v>0.4280568497378709</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1097329791755346</v>
+        <v>0.1083672764853567</v>
       </c>
       <c r="F4">
-        <v>0.7350452713642213</v>
+        <v>0.7194618917948574</v>
       </c>
       <c r="G4">
-        <v>0.2186835100492033</v>
+        <v>0.1925166986596594</v>
       </c>
       <c r="H4">
-        <v>0.005432582957437204</v>
+        <v>0.004753498045318161</v>
       </c>
       <c r="I4">
-        <v>0.002227538024645259</v>
+        <v>0.001652379280960847</v>
       </c>
       <c r="J4">
-        <v>0.2327052733888664</v>
+        <v>0.2597009069415464</v>
       </c>
       <c r="K4">
-        <v>0.2618572109068751</v>
+        <v>0.2467361020619094</v>
       </c>
       <c r="L4">
-        <v>0.08727291244507995</v>
+        <v>0.1328773124727647</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.06253666613380027</v>
       </c>
       <c r="N4">
-        <v>0.3090311378595061</v>
+        <v>0.08757038177110132</v>
       </c>
       <c r="O4">
-        <v>0.4197622522471818</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.3188927803664825</v>
       </c>
       <c r="Q4">
-        <v>0.8990951382342161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.4218525542094653</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.8652504302549744</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.95388546353189</v>
+        <v>1.959112535442955</v>
       </c>
       <c r="C5">
-        <v>0.4355285076603224</v>
+        <v>0.4189657046920416</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1092304946659937</v>
+        <v>0.1079626986167526</v>
       </c>
       <c r="F5">
-        <v>0.7281542553271194</v>
+        <v>0.7132555330966355</v>
       </c>
       <c r="G5">
-        <v>0.2172967342695244</v>
+        <v>0.1915736739233651</v>
       </c>
       <c r="H5">
-        <v>0.0059313952063971</v>
+        <v>0.005195535982055799</v>
       </c>
       <c r="I5">
-        <v>0.002580228337186519</v>
+        <v>0.001943583069012433</v>
       </c>
       <c r="J5">
-        <v>0.2332317008034437</v>
+        <v>0.2598325651930935</v>
       </c>
       <c r="K5">
-        <v>0.2643496096129638</v>
+        <v>0.249205230367421</v>
       </c>
       <c r="L5">
-        <v>0.08457431291695627</v>
+        <v>0.1343415938231907</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.06359607444111415</v>
       </c>
       <c r="N5">
-        <v>0.3002724718798362</v>
+        <v>0.08462704827041279</v>
       </c>
       <c r="O5">
-        <v>0.403180557049474</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.3098368115177834</v>
       </c>
       <c r="Q5">
-        <v>0.8971816514881539</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.4050375734633178</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.8642389903589986</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.940044402859542</v>
+        <v>1.945306304108669</v>
       </c>
       <c r="C6">
-        <v>0.4348668374369566</v>
+        <v>0.4180970150351726</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1091108016946762</v>
+        <v>0.1078603801995826</v>
       </c>
       <c r="F6">
-        <v>0.726389520367988</v>
+        <v>0.7116184318989482</v>
       </c>
       <c r="G6">
-        <v>0.2166838883195084</v>
+        <v>0.1910526646892379</v>
       </c>
       <c r="H6">
-        <v>0.00601961749771332</v>
+        <v>0.005273845298595814</v>
       </c>
       <c r="I6">
-        <v>0.002737812704931564</v>
+        <v>0.002107273495614237</v>
       </c>
       <c r="J6">
-        <v>0.2331166550152872</v>
+        <v>0.2596471369207194</v>
       </c>
       <c r="K6">
-        <v>0.2645054316057465</v>
+        <v>0.2493714265669311</v>
       </c>
       <c r="L6">
-        <v>0.08425388082373786</v>
+        <v>0.1344395313221529</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.0637402715648494</v>
       </c>
       <c r="N6">
-        <v>0.2991024381000074</v>
+        <v>0.08426615920785707</v>
       </c>
       <c r="O6">
-        <v>0.4005566952990876</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.3086154176583875</v>
       </c>
       <c r="Q6">
-        <v>0.8956285674226478</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.4023732916856275</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.8628717988318471</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.035073205147341</v>
+        <v>2.040010450054012</v>
       </c>
       <c r="C7">
-        <v>0.444929312031519</v>
+        <v>0.4292513909762761</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1096278447243098</v>
+        <v>0.1083082340448165</v>
       </c>
       <c r="F7">
-        <v>0.7332325187969602</v>
+        <v>0.7170242252185162</v>
       </c>
       <c r="G7">
-        <v>0.2176056579439845</v>
+        <v>0.1933679592663751</v>
       </c>
       <c r="H7">
-        <v>0.005445740386144815</v>
+        <v>0.004768855380907322</v>
       </c>
       <c r="I7">
-        <v>0.002479982715160922</v>
+        <v>0.001949618538730213</v>
       </c>
       <c r="J7">
-        <v>0.2321499576269304</v>
+        <v>0.2561450871082158</v>
       </c>
       <c r="K7">
-        <v>0.2611751206003792</v>
+        <v>0.2458600460499856</v>
       </c>
       <c r="L7">
-        <v>0.08758621087550011</v>
+        <v>0.132367026385376</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.06239115328095934</v>
       </c>
       <c r="N7">
-        <v>0.3096868692176287</v>
+        <v>0.08802692803045176</v>
       </c>
       <c r="O7">
-        <v>0.4198943306823324</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.3196856450117451</v>
       </c>
       <c r="Q7">
-        <v>0.8956456588318673</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.4220465561311855</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.8599304982332256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.453594330884755</v>
+        <v>2.457098321426258</v>
       </c>
       <c r="C8">
-        <v>0.487937714130851</v>
+        <v>0.4782150851230824</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1120007553558882</v>
+        <v>0.1102943860485777</v>
       </c>
       <c r="F8">
-        <v>0.7665264859048264</v>
+        <v>0.7451227080351757</v>
       </c>
       <c r="G8">
-        <v>0.2234911783078815</v>
+        <v>0.2014607703369791</v>
       </c>
       <c r="H8">
-        <v>0.003322139474077723</v>
+        <v>0.002895753003124113</v>
       </c>
       <c r="I8">
-        <v>0.001478290402133986</v>
+        <v>0.001283300040718416</v>
       </c>
       <c r="J8">
-        <v>0.2289977759689279</v>
+        <v>0.2480224403844602</v>
       </c>
       <c r="K8">
-        <v>0.2479152054256115</v>
+        <v>0.2321563182273856</v>
       </c>
       <c r="L8">
-        <v>0.1019684027427132</v>
+        <v>0.124489949889087</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.05764470016186696</v>
       </c>
       <c r="N8">
-        <v>0.355870839193031</v>
+        <v>0.1040577674985101</v>
       </c>
       <c r="O8">
-        <v>0.5048228131172152</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.3678383394001372</v>
       </c>
       <c r="Q8">
-        <v>0.9018913523990051</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.508326329738729</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.8566037377803184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.271439590860894</v>
+        <v>3.271707967387897</v>
       </c>
       <c r="C9">
-        <v>0.5702275376965815</v>
+        <v>0.5746231099556098</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1168267731635986</v>
+        <v>0.1142190394746443</v>
       </c>
       <c r="F9">
-        <v>0.8405356574038265</v>
+        <v>0.8103833535109075</v>
       </c>
       <c r="G9">
-        <v>0.2401336459560852</v>
+        <v>0.2153591039824221</v>
       </c>
       <c r="H9">
-        <v>0.0007858392703501416</v>
+        <v>0.0006661027070359316</v>
       </c>
       <c r="I9">
-        <v>0.0006664554023316782</v>
+        <v>0.0008264102978472465</v>
       </c>
       <c r="J9">
-        <v>0.2260137404109201</v>
+        <v>0.2444657889676947</v>
       </c>
       <c r="K9">
-        <v>0.2260263819337975</v>
+        <v>0.2096407155861968</v>
       </c>
       <c r="L9">
-        <v>0.1296270251235327</v>
+        <v>0.1119850583046755</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.05269976452487057</v>
       </c>
       <c r="N9">
-        <v>0.445987090872876</v>
+        <v>0.1346088202112128</v>
       </c>
       <c r="O9">
-        <v>0.6706618440226322</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.4617158722304282</v>
       </c>
       <c r="Q9">
-        <v>0.9315911481521226</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.6765834599133456</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.8719781640141946</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.874722709030323</v>
+        <v>3.871713862279137</v>
       </c>
       <c r="C10">
-        <v>0.6381212850467932</v>
+        <v>0.6503737512682051</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1180577756173573</v>
+        <v>0.1151351060781654</v>
       </c>
       <c r="F10">
-        <v>0.8838208161206609</v>
+        <v>0.8438676446572728</v>
       </c>
       <c r="G10">
-        <v>0.2496958314968154</v>
+        <v>0.2347469285923225</v>
       </c>
       <c r="H10">
-        <v>0.000261765889725929</v>
+        <v>0.0002453774341617532</v>
       </c>
       <c r="I10">
-        <v>0.001255438569685019</v>
+        <v>0.001532837845499735</v>
       </c>
       <c r="J10">
-        <v>0.2227495699763082</v>
+        <v>0.2250367968426588</v>
       </c>
       <c r="K10">
-        <v>0.2089999092421593</v>
+        <v>0.1912326057185574</v>
       </c>
       <c r="L10">
-        <v>0.1534950229117058</v>
+        <v>0.1027681818369519</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.05009895667702047</v>
       </c>
       <c r="N10">
-        <v>0.5005692995055</v>
+        <v>0.1616208768827718</v>
       </c>
       <c r="O10">
-        <v>0.7869109787157456</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.5196494436473102</v>
       </c>
       <c r="Q10">
-        <v>0.9454808991383175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.7948174520208298</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.8646295284883081</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.184263912758638</v>
+        <v>4.179996139790774</v>
       </c>
       <c r="C11">
-        <v>0.7249791650913551</v>
+        <v>0.7310751301384357</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1021681630932854</v>
+        <v>0.09986344689879978</v>
       </c>
       <c r="F11">
-        <v>0.7829663007430767</v>
+        <v>0.7417697428700336</v>
       </c>
       <c r="G11">
-        <v>0.2159262349901994</v>
+        <v>0.2280474635203547</v>
       </c>
       <c r="H11">
-        <v>0.01881054060609699</v>
+        <v>0.01880396601480427</v>
       </c>
       <c r="I11">
-        <v>0.002040007507138064</v>
+        <v>0.002404234998271804</v>
       </c>
       <c r="J11">
-        <v>0.2015845282672615</v>
+        <v>0.1826712806271829</v>
       </c>
       <c r="K11">
-        <v>0.1811071466863297</v>
+        <v>0.1661071112295076</v>
       </c>
       <c r="L11">
-        <v>0.1962634566756023</v>
+        <v>0.09359455220189838</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.04163073289833008</v>
       </c>
       <c r="N11">
-        <v>0.4210796494497657</v>
+        <v>0.2074085459741966</v>
       </c>
       <c r="O11">
-        <v>0.7887774921804507</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.4382916961128842</v>
       </c>
       <c r="Q11">
-        <v>0.829755314656623</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.7966970247790144</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.7404762471691129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.32010601322321</v>
+        <v>4.315814700900205</v>
       </c>
       <c r="C12">
-        <v>0.7854768867854318</v>
+        <v>0.7850371684229742</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.09325752308007207</v>
+        <v>0.09106694548161842</v>
       </c>
       <c r="F12">
-        <v>0.6957739444870299</v>
+        <v>0.6579940942388589</v>
       </c>
       <c r="G12">
-        <v>0.1884141785753073</v>
+        <v>0.2125590327378148</v>
       </c>
       <c r="H12">
-        <v>0.05749723959786479</v>
+        <v>0.05749270765949888</v>
       </c>
       <c r="I12">
-        <v>0.002113873063947835</v>
+        <v>0.00246556382993024</v>
       </c>
       <c r="J12">
-        <v>0.185801149393825</v>
+        <v>0.1645717068118522</v>
       </c>
       <c r="K12">
-        <v>0.1647392596706201</v>
+        <v>0.1529140638601856</v>
       </c>
       <c r="L12">
-        <v>0.2306260427953788</v>
+        <v>0.08951618802007388</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.03627357792444386</v>
       </c>
       <c r="N12">
-        <v>0.3481306252820104</v>
+        <v>0.2430178056434045</v>
       </c>
       <c r="O12">
-        <v>0.7647205820450651</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.3626367137728153</v>
       </c>
       <c r="Q12">
-        <v>0.7384448760186189</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.7719834375189976</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.6538994833841087</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.328312893527311</v>
+        <v>4.325217639719028</v>
       </c>
       <c r="C13">
-        <v>0.8312404078241968</v>
+        <v>0.825327670635744</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.08895519186219747</v>
+        <v>0.08668587292232705</v>
       </c>
       <c r="F13">
-        <v>0.611368583272295</v>
+        <v>0.5814971759434968</v>
       </c>
       <c r="G13">
-        <v>0.1623239152882334</v>
+        <v>0.1837709531712477</v>
       </c>
       <c r="H13">
-        <v>0.1132896528553573</v>
+        <v>0.1132802203012062</v>
       </c>
       <c r="I13">
-        <v>0.00196510185455967</v>
+        <v>0.002315215496351719</v>
       </c>
       <c r="J13">
-        <v>0.1722677663108954</v>
+        <v>0.160095581334911</v>
       </c>
       <c r="K13">
-        <v>0.1549452776567577</v>
+        <v>0.1465509127700297</v>
       </c>
       <c r="L13">
-        <v>0.260685780397111</v>
+        <v>0.08790817043597518</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.03286001774197</v>
       </c>
       <c r="N13">
-        <v>0.2775760874751256</v>
+        <v>0.2721507645996155</v>
       </c>
       <c r="O13">
-        <v>0.7200619418222942</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.2885711445434538</v>
       </c>
       <c r="Q13">
-        <v>0.6547707272879393</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.7259563496071664</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.5874872401501676</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.276022174494244</v>
+        <v>4.274300314830782</v>
       </c>
       <c r="C14">
-        <v>0.8574136401028909</v>
+        <v>0.8481676933137123</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.08860474139151675</v>
+        <v>0.08630736966961905</v>
       </c>
       <c r="F14">
-        <v>0.5542533064672241</v>
+        <v>0.5313165984403838</v>
       </c>
       <c r="G14">
-        <v>0.1447959426796928</v>
+        <v>0.1589957964065718</v>
       </c>
       <c r="H14">
-        <v>0.1626868052182431</v>
+        <v>0.1626680476141047</v>
       </c>
       <c r="I14">
-        <v>0.00185183389945287</v>
+        <v>0.002217951139939167</v>
       </c>
       <c r="J14">
-        <v>0.1638229861415397</v>
+        <v>0.1613773411837336</v>
       </c>
       <c r="K14">
-        <v>0.1512975816772029</v>
+        <v>0.145006802109839</v>
       </c>
       <c r="L14">
-        <v>0.2801758984793707</v>
+        <v>0.08765032676836415</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.03147139755287043</v>
       </c>
       <c r="N14">
-        <v>0.2308067304078421</v>
+        <v>0.2898415035732285</v>
       </c>
       <c r="O14">
-        <v>0.6798213069465504</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.2392409642291895</v>
       </c>
       <c r="Q14">
-        <v>0.5998699696959449</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.6844677589500989</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.5487418249390288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.235640544985699</v>
+        <v>4.234490677548877</v>
       </c>
       <c r="C15">
-        <v>0.8608877582637149</v>
+        <v>0.8511543842569438</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.08888504000743147</v>
+        <v>0.08662306188686975</v>
       </c>
       <c r="F15">
-        <v>0.5399817568178733</v>
+        <v>0.5194191820435279</v>
       </c>
       <c r="G15">
-        <v>0.1403771144046644</v>
+        <v>0.1507244993558317</v>
       </c>
       <c r="H15">
-        <v>0.1752250717592858</v>
+        <v>0.1752004108875269</v>
       </c>
       <c r="I15">
-        <v>0.001894934240741719</v>
+        <v>0.002287563046141194</v>
       </c>
       <c r="J15">
-        <v>0.1620231033919168</v>
+        <v>0.1635849473805351</v>
       </c>
       <c r="K15">
-        <v>0.1513688556795945</v>
+        <v>0.1455449453065691</v>
       </c>
       <c r="L15">
-        <v>0.283638351504294</v>
+        <v>0.08782693587436774</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.03143491579311242</v>
       </c>
       <c r="N15">
-        <v>0.2193250692293915</v>
+        <v>0.2924082123784189</v>
       </c>
       <c r="O15">
-        <v>0.6659098303898361</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.2270329268618241</v>
       </c>
       <c r="Q15">
-        <v>0.5866989848221635</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.6701218541429341</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.5414086234009119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.972269137678893</v>
+        <v>3.973151210198523</v>
       </c>
       <c r="C16">
-        <v>0.8214783120872653</v>
+        <v>0.8144475286521526</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.08911983460366013</v>
+        <v>0.08719873809516754</v>
       </c>
       <c r="F16">
-        <v>0.5383342792973522</v>
+        <v>0.5239986340796818</v>
       </c>
       <c r="G16">
-        <v>0.140784285670243</v>
+        <v>0.1341071860121232</v>
       </c>
       <c r="H16">
-        <v>0.1626874380030898</v>
+        <v>0.1626195028750601</v>
       </c>
       <c r="I16">
-        <v>0.001712484119916091</v>
+        <v>0.002119382214445409</v>
       </c>
       <c r="J16">
-        <v>0.165628641701467</v>
+        <v>0.1835321638487919</v>
       </c>
       <c r="K16">
-        <v>0.1596641889312629</v>
+        <v>0.1537891030615057</v>
       </c>
       <c r="L16">
-        <v>0.2664281615306265</v>
+        <v>0.09012395197055595</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.03405977262393289</v>
       </c>
       <c r="N16">
-        <v>0.2124166256213016</v>
+        <v>0.2716770789132568</v>
       </c>
       <c r="O16">
-        <v>0.6263021796412147</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.2189148970226924</v>
       </c>
       <c r="Q16">
-        <v>0.5949219229114817</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.6293982016601873</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.5663383633090149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.7986151601541</v>
+        <v>3.800155524129366</v>
       </c>
       <c r="C17">
-        <v>0.7774747513569764</v>
+        <v>0.7733105552916015</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.08909656955455003</v>
+        <v>0.08729875007545052</v>
       </c>
       <c r="F17">
-        <v>0.5668552527106741</v>
+        <v>0.5534354679502798</v>
       </c>
       <c r="G17">
-        <v>0.1503030928625932</v>
+        <v>0.1359025869668002</v>
       </c>
       <c r="H17">
-        <v>0.1250592730446272</v>
+        <v>0.1249585223365131</v>
       </c>
       <c r="I17">
-        <v>0.001680884391457305</v>
+        <v>0.002084849888136731</v>
       </c>
       <c r="J17">
-        <v>0.172868566007395</v>
+        <v>0.1984184186317961</v>
       </c>
       <c r="K17">
-        <v>0.1678568583463411</v>
+        <v>0.1611880640630652</v>
       </c>
       <c r="L17">
-        <v>0.2427755603303723</v>
+        <v>0.09248397668463171</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.03664122815319404</v>
       </c>
       <c r="N17">
-        <v>0.2310690162603848</v>
+        <v>0.2468849632967931</v>
       </c>
       <c r="O17">
-        <v>0.6171881578627421</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.2379113642465498</v>
       </c>
       <c r="Q17">
-        <v>0.6301472892358362</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.6201730281315463</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.6051084750694855</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.682767369189776</v>
+        <v>3.684103160878863</v>
       </c>
       <c r="C18">
-        <v>0.7244092300864793</v>
+        <v>0.7243785091300481</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.09112725174543135</v>
+        <v>0.08922830986526709</v>
       </c>
       <c r="F18">
-        <v>0.6281795837360775</v>
+        <v>0.6121355795135628</v>
       </c>
       <c r="G18">
-        <v>0.1701538259321467</v>
+        <v>0.1506354034520143</v>
       </c>
       <c r="H18">
-        <v>0.0722871647475003</v>
+        <v>0.07217357356500287</v>
       </c>
       <c r="I18">
-        <v>0.001440537283687426</v>
+        <v>0.001791756322464977</v>
       </c>
       <c r="J18">
-        <v>0.1847176465563862</v>
+        <v>0.2129108311981369</v>
       </c>
       <c r="K18">
-        <v>0.178411080974664</v>
+        <v>0.1701232058141526</v>
       </c>
       <c r="L18">
-        <v>0.2121333423417298</v>
+        <v>0.09572729617074227</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.03986128313525938</v>
       </c>
       <c r="N18">
-        <v>0.2771037094253614</v>
+        <v>0.2163659257280983</v>
       </c>
       <c r="O18">
-        <v>0.6329195516164248</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.2855827954028456</v>
       </c>
       <c r="Q18">
-        <v>0.6969827062975895</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.6365058132214045</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.6674114556633555</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.621480345602095</v>
+        <v>3.622039227370806</v>
       </c>
       <c r="C19">
-        <v>0.6745573272100671</v>
+        <v>0.6793592190076367</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.09794849895186086</v>
+        <v>0.09572186406454364</v>
       </c>
       <c r="F19">
-        <v>0.713263061576825</v>
+        <v>0.6919410897726621</v>
       </c>
       <c r="G19">
-        <v>0.1966880575150327</v>
+        <v>0.1729601786779398</v>
       </c>
       <c r="H19">
-        <v>0.02693546996228946</v>
+        <v>0.02683439587460867</v>
       </c>
       <c r="I19">
-        <v>0.001566774598412479</v>
+        <v>0.001946626988018174</v>
       </c>
       <c r="J19">
-        <v>0.1991629492038101</v>
+        <v>0.2268427880627328</v>
       </c>
       <c r="K19">
-        <v>0.1913824433339588</v>
+        <v>0.1806089534551738</v>
       </c>
       <c r="L19">
-        <v>0.1813528370734403</v>
+        <v>0.09972462110480418</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.04374996379121399</v>
       </c>
       <c r="N19">
-        <v>0.3488349824979622</v>
+        <v>0.1862638097957969</v>
       </c>
       <c r="O19">
-        <v>0.6683538557804027</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.3601219673245026</v>
       </c>
       <c r="Q19">
-        <v>0.783472688773756</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.6730285996464858</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.7437303802791604</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.715522981206789</v>
+        <v>3.713736671474351</v>
       </c>
       <c r="C20">
-        <v>0.626174221660591</v>
+        <v>0.6381463700474228</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1173495898772323</v>
+        <v>0.1143653621554819</v>
       </c>
       <c r="F20">
-        <v>0.8663392067776243</v>
+        <v>0.8316314552209718</v>
       </c>
       <c r="G20">
-        <v>0.2436035827766077</v>
+        <v>0.2192818956040767</v>
       </c>
       <c r="H20">
-        <v>0.0003086044863911397</v>
+        <v>0.0002720241282183622</v>
       </c>
       <c r="I20">
-        <v>0.001785673547308519</v>
+        <v>0.002207487777662998</v>
       </c>
       <c r="J20">
-        <v>0.2217150229565519</v>
+        <v>0.2378312281650778</v>
       </c>
       <c r="K20">
-        <v>0.2111674911915369</v>
+        <v>0.1948118116828077</v>
       </c>
       <c r="L20">
-        <v>0.1484918275522134</v>
+        <v>0.1046561178911762</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.05020219082384614</v>
       </c>
       <c r="N20">
-        <v>0.4881005323175032</v>
+        <v>0.1552310640902519</v>
       </c>
       <c r="O20">
-        <v>0.7572580998075864</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.5057142718019776</v>
       </c>
       <c r="Q20">
-        <v>0.9302818900623038</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.7643734923301011</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.8628140883047166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.17219045829188</v>
+        <v>4.165884529675907</v>
       </c>
       <c r="C21">
-        <v>0.6687064155557891</v>
+        <v>0.6790358282243574</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1218972339740709</v>
+        <v>0.1194726477155967</v>
       </c>
       <c r="F21">
-        <v>0.9239151267875769</v>
+        <v>0.8671651446951074</v>
       </c>
       <c r="G21">
-        <v>0.2593105730964567</v>
+        <v>0.2808254744235938</v>
       </c>
       <c r="H21">
-        <v>5.838222948417737E-06</v>
+        <v>6.468861846187224E-06</v>
       </c>
       <c r="I21">
-        <v>0.002469295558704232</v>
+        <v>0.00286234411025621</v>
       </c>
       <c r="J21">
-        <v>0.2236227032134721</v>
+        <v>0.1852342060465304</v>
       </c>
       <c r="K21">
-        <v>0.2031319976662491</v>
+        <v>0.1809288390470591</v>
       </c>
       <c r="L21">
-        <v>0.161573207416275</v>
+        <v>0.09812689182613532</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.04861066487935339</v>
       </c>
       <c r="N21">
-        <v>0.5494988524527287</v>
+        <v>0.1738599563965408</v>
       </c>
       <c r="O21">
-        <v>0.8554477752291731</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.5736394270420107</v>
       </c>
       <c r="Q21">
-        <v>0.9679157088456236</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.865698910533105</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.8440086041756416</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.473090977022878</v>
+        <v>4.463610581223122</v>
       </c>
       <c r="C22">
-        <v>0.6972309964021974</v>
+        <v>0.7055438724290184</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1238322144150672</v>
+        <v>0.1219609867743721</v>
       </c>
       <c r="F22">
-        <v>0.9573964312851615</v>
+        <v>0.885368540592097</v>
       </c>
       <c r="G22">
-        <v>0.2691905458322879</v>
+        <v>0.3278466043723114</v>
       </c>
       <c r="H22">
-        <v>0.0001510564064153286</v>
+        <v>0.000135010152728765</v>
       </c>
       <c r="I22">
-        <v>0.002849532935283783</v>
+        <v>0.00310353554355558</v>
       </c>
       <c r="J22">
-        <v>0.2247224760224498</v>
+        <v>0.1585299101010449</v>
       </c>
       <c r="K22">
-        <v>0.1978547046873036</v>
+        <v>0.171682570091825</v>
       </c>
       <c r="L22">
-        <v>0.1713470369912145</v>
+        <v>0.09407741238568246</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.04765962825034897</v>
       </c>
       <c r="N22">
-        <v>0.5822817314690525</v>
+        <v>0.1875948257209785</v>
       </c>
       <c r="O22">
-        <v>0.9162361042583811</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.6107830526979683</v>
       </c>
       <c r="Q22">
-        <v>0.9913794043986854</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.9285752531302265</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.8280281150084505</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.312885631843471</v>
+        <v>4.305323273580655</v>
       </c>
       <c r="C23">
-        <v>0.6798096678267314</v>
+        <v>0.6903162034852812</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.122906791375204</v>
+        <v>0.1205943351136654</v>
       </c>
       <c r="F23">
-        <v>0.9414350536993368</v>
+        <v>0.8792478397268439</v>
       </c>
       <c r="G23">
-        <v>0.265089391085283</v>
+        <v>0.2977176504850547</v>
       </c>
       <c r="H23">
-        <v>5.007327040473797E-05</v>
+        <v>4.715326765070138E-05</v>
       </c>
       <c r="I23">
-        <v>0.002333649687761508</v>
+        <v>0.002607667697325233</v>
       </c>
       <c r="J23">
-        <v>0.2247425820160913</v>
+        <v>0.1761393912171663</v>
       </c>
       <c r="K23">
-        <v>0.2014078411173674</v>
+        <v>0.1777155907273187</v>
       </c>
       <c r="L23">
-        <v>0.1656955240450699</v>
+        <v>0.09654172563037999</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.04865839825067297</v>
       </c>
       <c r="N23">
-        <v>0.5638305452360157</v>
+        <v>0.1793665611173765</v>
       </c>
       <c r="O23">
-        <v>0.8833575797415563</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.589561083584087</v>
       </c>
       <c r="Q23">
-        <v>0.9826126950418512</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.8943952620177171</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.8449207491685939</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.705502081311238</v>
+        <v>3.703654898589718</v>
       </c>
       <c r="C24">
-        <v>0.6176789375898579</v>
+        <v>0.6298622341189741</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1192499258712374</v>
+        <v>0.1161969217113938</v>
       </c>
       <c r="F24">
-        <v>0.8796434705939191</v>
+        <v>0.84421546756829</v>
       </c>
       <c r="G24">
-        <v>0.2487286871215275</v>
+        <v>0.2235393333721163</v>
       </c>
       <c r="H24">
-        <v>0.0001728112040163543</v>
+        <v>0.0001380069288742236</v>
       </c>
       <c r="I24">
-        <v>0.001308124326326876</v>
+        <v>0.00163031195987795</v>
       </c>
       <c r="J24">
-        <v>0.2244740681652644</v>
+        <v>0.2407484303663239</v>
       </c>
       <c r="K24">
-        <v>0.2144910600354422</v>
+        <v>0.1976000725162343</v>
       </c>
       <c r="L24">
-        <v>0.1450337365262797</v>
+        <v>0.105698473072299</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.05124859028143902</v>
       </c>
       <c r="N24">
-        <v>0.4957874028852274</v>
+        <v>0.1517307329345883</v>
       </c>
       <c r="O24">
-        <v>0.7596752342535282</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.513767740309433</v>
       </c>
       <c r="Q24">
-        <v>0.9469206127210157</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.7669032208132194</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.8779827934456677</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.049904344078641</v>
+        <v>3.051257176248612</v>
       </c>
       <c r="C25">
-        <v>0.5510705499239066</v>
+        <v>0.5522874006046266</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1153493185410248</v>
+        <v>0.1129274007276564</v>
       </c>
       <c r="F25">
-        <v>0.8167877991787122</v>
+        <v>0.7901744739851964</v>
       </c>
       <c r="G25">
-        <v>0.2333620162247243</v>
+        <v>0.2067176175418908</v>
       </c>
       <c r="H25">
-        <v>0.001287676278977967</v>
+        <v>0.001102614727932494</v>
       </c>
       <c r="I25">
-        <v>0.001129219113410684</v>
+        <v>0.001302779680012023</v>
       </c>
       <c r="J25">
-        <v>0.2255775735440793</v>
+        <v>0.2484068736720815</v>
       </c>
       <c r="K25">
-        <v>0.2303904196713482</v>
+        <v>0.2146816618839971</v>
       </c>
       <c r="L25">
-        <v>0.1227794106213622</v>
+        <v>0.1148317940541812</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.05335128361977581</v>
       </c>
       <c r="N25">
-        <v>0.4229094753886642</v>
+        <v>0.1267494224709438</v>
       </c>
       <c r="O25">
-        <v>0.6264356289004098</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.4373538259110319</v>
       </c>
       <c r="Q25">
-        <v>0.9161474470148363</v>
+        <v>0.6315963149041792</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.8638411596199944</v>
       </c>
     </row>
   </sheetData>
